--- a/Tabelas/CAGED_outubro2.xlsx
+++ b/Tabelas/CAGED_outubro2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c696b9d4e2a0e642/Documentos/R/Projeto CAGED/Python/Tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_CEF7C1C8AD71A89DFCE76DE06814BA8628FBCD23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE26650F-E5E1-42BD-87BF-FF17BD025D43}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_5F25F6F41BC700A2FAA8014161621C31F32991F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBC1988-E802-41B1-A615-044597FA164E}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="município" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,13 @@
     <sheet name="faixaetária" sheetId="5" r:id="rId5"/>
     <sheet name="raçacor" sheetId="6" r:id="rId6"/>
     <sheet name="sexo" sheetId="7" r:id="rId7"/>
-    <sheet name="valorsaláriofixo" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="857">
   <si>
     <t>Período</t>
   </si>
@@ -2611,45 +2597,6 @@
   </si>
   <si>
     <t>Mulher</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Montante de Salários</t>
-  </si>
-  <si>
-    <t>Salário Médio</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>3020.30</t>
-  </si>
-  <si>
-    <t>1496.15</t>
-  </si>
-  <si>
-    <t>1356.68</t>
-  </si>
-  <si>
-    <t>1436.70</t>
-  </si>
-  <si>
-    <t>1572.30</t>
-  </si>
-  <si>
-    <t>1593.67</t>
-  </si>
-  <si>
-    <t>1584.17</t>
-  </si>
-  <si>
-    <t>1382.90</t>
-  </si>
-  <si>
-    <t>1595.02</t>
   </si>
 </sst>
 </file>
@@ -3024,7 +2971,7 @@
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3072,7 +3019,7 @@
         <v>1848.3</v>
       </c>
       <c r="G2">
-        <v>1693.62</v>
+        <v>1662.69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,7 +3042,7 @@
         <v>1320</v>
       </c>
       <c r="G3">
-        <v>1321.38</v>
+        <v>1321.66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,7 +3065,7 @@
         <v>1420.54</v>
       </c>
       <c r="G4">
-        <v>1401.93</v>
+        <v>1478.19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3141,7 +3088,7 @@
         <v>1331.11</v>
       </c>
       <c r="G5">
-        <v>1328.33</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,10 +3128,10 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>1252.94</v>
+        <v>1408.8</v>
       </c>
       <c r="G7">
-        <v>1424.43</v>
+        <v>1543.16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3204,10 +3151,10 @@
         <v>86</v>
       </c>
       <c r="F8">
-        <v>1532.32</v>
+        <v>1560.08</v>
       </c>
       <c r="G8">
-        <v>1487.83</v>
+        <v>1491.28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3230,7 +3177,7 @@
         <v>1347.77</v>
       </c>
       <c r="G9">
-        <v>1382.53</v>
+        <v>1417.29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3253,7 +3200,7 @@
         <v>1944.09</v>
       </c>
       <c r="G10">
-        <v>1828.26</v>
+        <v>1917.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3273,10 +3220,10 @@
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>2035</v>
+        <v>2713.33</v>
       </c>
       <c r="G11">
-        <v>1728.57</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3299,7 +3246,7 @@
         <v>1517.71</v>
       </c>
       <c r="G12">
-        <v>1495.74</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3322,7 +3269,7 @@
         <v>1951.82</v>
       </c>
       <c r="G13">
-        <v>1551.13</v>
+        <v>1105.93</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3345,7 +3292,7 @@
         <v>1503.33</v>
       </c>
       <c r="G14">
-        <v>1430</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3368,7 +3315,7 @@
         <v>1443.12</v>
       </c>
       <c r="G15">
-        <v>1442.01</v>
+        <v>1434.58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3388,10 +3335,7 @@
         <v>-5</v>
       </c>
       <c r="F16">
-        <v>663.8</v>
-      </c>
-      <c r="G16">
-        <v>663.8</v>
+        <v>1102.33</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3413,9 +3357,6 @@
       <c r="F17">
         <v>1320</v>
       </c>
-      <c r="G17">
-        <v>1320</v>
-      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -3437,7 +3378,7 @@
         <v>1918.84</v>
       </c>
       <c r="G18">
-        <v>1908.02</v>
+        <v>1895.39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3460,7 +3401,7 @@
         <v>1945.88</v>
       </c>
       <c r="G19">
-        <v>1945.03</v>
+        <v>1985.03</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3482,9 +3423,6 @@
       <c r="F20">
         <v>1320</v>
       </c>
-      <c r="G20">
-        <v>1320</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -3503,10 +3441,10 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1325.9</v>
+        <v>1401.49</v>
       </c>
       <c r="G21">
-        <v>1360.99</v>
+        <v>1472.34</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3529,7 +3467,7 @@
         <v>1740</v>
       </c>
       <c r="G22">
-        <v>1656</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,10 +3487,10 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>794.4</v>
+        <v>1320</v>
       </c>
       <c r="G23">
-        <v>1266.8399999999999</v>
+        <v>1660.54</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,7 +3513,7 @@
         <v>1324.64</v>
       </c>
       <c r="G24">
-        <v>1324.2</v>
+        <v>1323.38</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3597,9 +3535,6 @@
       <c r="F25">
         <v>1331.11</v>
       </c>
-      <c r="G25">
-        <v>1331.11</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -3621,7 +3556,7 @@
         <v>1320</v>
       </c>
       <c r="G26">
-        <v>1702.86</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3644,7 +3579,7 @@
         <v>1595</v>
       </c>
       <c r="G27">
-        <v>1414.91</v>
+        <v>1354.88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3664,10 +3599,10 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <v>991.5</v>
+        <v>1320</v>
       </c>
       <c r="G28">
-        <v>1252.73</v>
+        <v>1383.35</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3689,9 +3624,6 @@
       <c r="F29">
         <v>1320</v>
       </c>
-      <c r="G29">
-        <v>1320</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -3712,9 +3644,6 @@
       <c r="F30">
         <v>1610</v>
       </c>
-      <c r="G30">
-        <v>1610</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -3735,9 +3664,6 @@
       <c r="F31">
         <v>1320</v>
       </c>
-      <c r="G31">
-        <v>1320</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -3759,7 +3685,7 @@
         <v>1893.1</v>
       </c>
       <c r="G32">
-        <v>1760.49</v>
+        <v>1686.96</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3781,9 +3707,6 @@
       <c r="F33">
         <v>5136.6400000000003</v>
       </c>
-      <c r="G33">
-        <v>5136.6400000000003</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -3825,7 +3748,7 @@
         <v>3500</v>
       </c>
       <c r="G35">
-        <v>2500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3848,7 +3771,7 @@
         <v>1628.76</v>
       </c>
       <c r="G36">
-        <v>1317.51</v>
+        <v>1228.58</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3894,7 +3817,7 @@
         <v>1523.7</v>
       </c>
       <c r="G38">
-        <v>1504.44</v>
+        <v>1486.46</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3940,7 +3863,7 @@
         <v>1460.83</v>
       </c>
       <c r="G40">
-        <v>1400.47</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3962,9 +3885,6 @@
       <c r="F41">
         <v>2000</v>
       </c>
-      <c r="G41">
-        <v>1033</v>
-      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -3986,7 +3906,7 @@
         <v>1373.78</v>
       </c>
       <c r="G42">
-        <v>1488.5</v>
+        <v>1595.32</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -4009,7 +3929,7 @@
         <v>2196.23</v>
       </c>
       <c r="G43">
-        <v>1898.36</v>
+        <v>1664.32</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -4031,9 +3951,6 @@
       <c r="F44">
         <v>2431</v>
       </c>
-      <c r="G44">
-        <v>2431</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -4052,10 +3969,10 @@
         <v>54</v>
       </c>
       <c r="F45">
-        <v>1262.8599999999999</v>
+        <v>1402.9</v>
       </c>
       <c r="G45">
-        <v>1337.18</v>
+        <v>1413.18</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4078,7 +3995,7 @@
         <v>1340</v>
       </c>
       <c r="G46">
-        <v>1351.95</v>
+        <v>1363.89</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4098,10 +4015,10 @@
         <v>-94</v>
       </c>
       <c r="F47">
-        <v>335.38</v>
+        <v>1308.8699999999999</v>
       </c>
       <c r="G47">
-        <v>536.73</v>
+        <v>1494.17</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4124,7 +4041,7 @@
         <v>1990.14</v>
       </c>
       <c r="G48">
-        <v>1670.33</v>
+        <v>1297.22</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4144,10 +4061,10 @@
         <v>2</v>
       </c>
       <c r="F49">
-        <v>471.67</v>
+        <v>1415</v>
       </c>
       <c r="G49">
-        <v>14197.5</v>
+        <v>22433</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -4170,7 +4087,7 @@
         <v>1320</v>
       </c>
       <c r="G50">
-        <v>1390.21</v>
+        <v>1404.25</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4212,9 +4129,6 @@
       <c r="F52">
         <v>1746.33</v>
       </c>
-      <c r="G52">
-        <v>1746.33</v>
-      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -4236,7 +4150,7 @@
         <v>1475.83</v>
       </c>
       <c r="G53">
-        <v>1523.44</v>
+        <v>1591.2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4256,10 +4170,10 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>1245.2</v>
+        <v>1423.08</v>
       </c>
       <c r="G54">
-        <v>1345.55</v>
+        <v>1387.81</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4282,7 +4196,7 @@
         <v>1970.14</v>
       </c>
       <c r="G55">
-        <v>1536.71</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4304,9 +4218,6 @@
       <c r="F56">
         <v>1322.27</v>
       </c>
-      <c r="G56">
-        <v>1322.27</v>
-      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -4328,7 +4239,7 @@
         <v>1324.63</v>
       </c>
       <c r="G57">
-        <v>1367.65</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4351,7 +4262,7 @@
         <v>4000</v>
       </c>
       <c r="G58">
-        <v>2059.6999999999998</v>
+        <v>1574.62</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4374,7 +4285,7 @@
         <v>1546.67</v>
       </c>
       <c r="G59">
-        <v>1490</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4414,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>883.64</v>
+        <v>1320</v>
       </c>
       <c r="G61">
-        <v>1101.82</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4437,10 +4348,10 @@
         <v>14</v>
       </c>
       <c r="F62">
-        <v>1347.48</v>
+        <v>1429.86</v>
       </c>
       <c r="G62">
-        <v>1348.89</v>
+        <v>1410.3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4463,7 +4374,7 @@
         <v>1480</v>
       </c>
       <c r="G63">
-        <v>1416</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4486,7 +4397,7 @@
         <v>1345.84</v>
       </c>
       <c r="G64">
-        <v>1331.77</v>
+        <v>1308.33</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4509,7 +4420,7 @@
         <v>1593.14</v>
       </c>
       <c r="G65">
-        <v>1485.32</v>
+        <v>1377.5</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4532,7 +4443,7 @@
         <v>1873.21</v>
       </c>
       <c r="G66">
-        <v>1949.98</v>
+        <v>1989.6</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4555,7 +4466,7 @@
         <v>1631.7</v>
       </c>
       <c r="G67">
-        <v>1670.72</v>
+        <v>1826.81</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,9 +4488,6 @@
       <c r="F68">
         <v>400</v>
       </c>
-      <c r="G68">
-        <v>400</v>
-      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -4601,7 +4509,7 @@
         <v>1413.42</v>
       </c>
       <c r="G69">
-        <v>1419.19</v>
+        <v>1424.74</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4624,7 +4532,7 @@
         <v>1615</v>
       </c>
       <c r="G70">
-        <v>1931.11</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4667,7 +4575,7 @@
         <v>1898.77</v>
       </c>
       <c r="G72">
-        <v>1705.85</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4687,10 +4595,10 @@
         <v>8</v>
       </c>
       <c r="F73">
-        <v>1471.13</v>
+        <v>1541.18</v>
       </c>
       <c r="G73">
-        <v>1435.53</v>
+        <v>1409.41</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4713,7 +4621,7 @@
         <v>1320</v>
       </c>
       <c r="G74">
-        <v>1339.56</v>
+        <v>1343.47</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4733,10 +4641,10 @@
         <v>-2</v>
       </c>
       <c r="F75">
-        <v>1334.62</v>
+        <v>1384.48</v>
       </c>
       <c r="G75">
-        <v>1450.35</v>
+        <v>1570.9</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4758,9 +4666,6 @@
       <c r="F76">
         <v>1442.25</v>
       </c>
-      <c r="G76">
-        <v>1442.25</v>
-      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -4779,10 +4684,10 @@
         <v>38</v>
       </c>
       <c r="F77">
-        <v>1544.14</v>
+        <v>1550.62</v>
       </c>
       <c r="G77">
-        <v>1485.15</v>
+        <v>1444.75</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4804,9 +4709,6 @@
       <c r="F78">
         <v>1618.49</v>
       </c>
-      <c r="G78">
-        <v>1618.49</v>
-      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -4848,10 +4750,10 @@
         <v>-8</v>
       </c>
       <c r="F80">
-        <v>1330.84</v>
+        <v>1496.45</v>
       </c>
       <c r="G80">
-        <v>1380.84</v>
+        <v>1830.83</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4894,7 +4796,7 @@
         <v>1671.99</v>
       </c>
       <c r="G82">
-        <v>1721.85</v>
+        <v>1771.72</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4917,7 +4819,7 @@
         <v>2121.94</v>
       </c>
       <c r="G83">
-        <v>1948.77</v>
+        <v>1788.67</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4960,10 +4862,10 @@
         <v>-6</v>
       </c>
       <c r="F85">
-        <v>1171.03</v>
+        <v>1836.63</v>
       </c>
       <c r="G85">
-        <v>1452.11</v>
+        <v>2070.48</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4986,7 +4888,7 @@
         <v>1608.55</v>
       </c>
       <c r="G86">
-        <v>1435.5</v>
+        <v>1089.4000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -5009,7 +4911,7 @@
         <v>1333.8</v>
       </c>
       <c r="G87">
-        <v>1331.04</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -5032,7 +4934,7 @@
         <v>1690.13</v>
       </c>
       <c r="G88">
-        <v>1597.6</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -5051,11 +4953,8 @@
       <c r="E89">
         <v>22</v>
       </c>
-      <c r="F89">
-        <v>6</v>
-      </c>
       <c r="G89">
-        <v>1446.37</v>
+        <v>1508.99</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5075,10 +4974,10 @@
         <v>-12</v>
       </c>
       <c r="F90">
-        <v>1526.16</v>
+        <v>1580.45</v>
       </c>
       <c r="G90">
-        <v>1590.91</v>
+        <v>1672.55</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5100,9 +4999,6 @@
       <c r="F91">
         <v>1476.17</v>
       </c>
-      <c r="G91">
-        <v>1476.17</v>
-      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -5124,7 +5020,7 @@
         <v>1366.85</v>
       </c>
       <c r="G92">
-        <v>1403.99</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5147,7 +5043,7 @@
         <v>1553.34</v>
       </c>
       <c r="G93">
-        <v>1474.55</v>
+        <v>1495.63</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5190,7 +5086,7 @@
         <v>3449.46</v>
       </c>
       <c r="G95">
-        <v>2140.71</v>
+        <v>1322.75</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5213,7 +5109,7 @@
         <v>1546.28</v>
       </c>
       <c r="G96">
-        <v>1505.12</v>
+        <v>1474.94</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5235,9 +5131,6 @@
       <c r="F97">
         <v>1320</v>
       </c>
-      <c r="G97">
-        <v>1320</v>
-      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -5258,9 +5151,6 @@
       <c r="F98">
         <v>1650</v>
       </c>
-      <c r="G98">
-        <v>1650</v>
-      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
@@ -5278,11 +5168,8 @@
       <c r="E99">
         <v>1</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
       <c r="G99">
-        <v>1269.04</v>
+        <v>1903.57</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5305,7 +5192,7 @@
         <v>1331</v>
       </c>
       <c r="G100">
-        <v>1323.67</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5328,7 +5215,7 @@
         <v>2176.4699999999998</v>
       </c>
       <c r="G101">
-        <v>2372.7800000000002</v>
+        <v>2421.85</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5351,7 +5238,7 @@
         <v>1342.22</v>
       </c>
       <c r="G102">
-        <v>1341.33</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5374,7 +5261,7 @@
         <v>1572.83</v>
       </c>
       <c r="G103">
-        <v>1559.41</v>
+        <v>1483.33</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5394,10 +5281,10 @@
         <v>-8</v>
       </c>
       <c r="F104">
-        <v>1403.95</v>
+        <v>1695.32</v>
       </c>
       <c r="G104">
-        <v>1383.7</v>
+        <v>1416.62</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5417,10 +5304,10 @@
         <v>4</v>
       </c>
       <c r="F105">
-        <v>1487.72</v>
+        <v>1858.15</v>
       </c>
       <c r="G105">
-        <v>1586.26</v>
+        <v>1656.64</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5443,7 +5330,7 @@
         <v>1504.69</v>
       </c>
       <c r="G106">
-        <v>1450.23</v>
+        <v>1410.63</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5466,7 +5353,7 @@
         <v>1494.31</v>
       </c>
       <c r="G107">
-        <v>1519.12</v>
+        <v>1533.3</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5489,7 +5376,7 @@
         <v>1453.6</v>
       </c>
       <c r="G108">
-        <v>1471.13</v>
+        <v>1494.5</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5511,9 +5398,6 @@
       <c r="F109">
         <v>1360</v>
       </c>
-      <c r="G109">
-        <v>1360</v>
-      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
@@ -5535,7 +5419,7 @@
         <v>1624.7</v>
       </c>
       <c r="G110">
-        <v>1893.06</v>
+        <v>1910.95</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5555,10 +5439,10 @@
         <v>-31</v>
       </c>
       <c r="F111">
-        <v>1333.81</v>
+        <v>1367.86</v>
       </c>
       <c r="G111">
-        <v>1349.99</v>
+        <v>1421.91</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5581,7 +5465,7 @@
         <v>1810</v>
       </c>
       <c r="G112">
-        <v>1748</v>
+        <v>1706.67</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,7 +5508,7 @@
         <v>1343.82</v>
       </c>
       <c r="G114">
-        <v>1408.92</v>
+        <v>1438.96</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5647,7 +5531,7 @@
         <v>2479.27</v>
       </c>
       <c r="G115">
-        <v>2193.4299999999998</v>
+        <v>2026.11</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5670,7 +5554,7 @@
         <v>2248.86</v>
       </c>
       <c r="G116">
-        <v>1830.71</v>
+        <v>1770.98</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5692,9 +5576,6 @@
       <c r="F117">
         <v>2640</v>
       </c>
-      <c r="G117">
-        <v>2640</v>
-      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
@@ -5716,7 +5597,7 @@
         <v>1320</v>
       </c>
       <c r="G118">
-        <v>1340</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5739,7 +5620,7 @@
         <v>1428.51</v>
       </c>
       <c r="G119">
-        <v>1399.64</v>
+        <v>1377.99</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5762,7 +5643,7 @@
         <v>1455.03</v>
       </c>
       <c r="G120">
-        <v>1432.79</v>
+        <v>1384.16</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5784,9 +5665,6 @@
       <c r="F121">
         <v>1383.2</v>
       </c>
-      <c r="G121">
-        <v>1383.2</v>
-      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -5827,9 +5705,6 @@
       <c r="F123">
         <v>1442.68</v>
       </c>
-      <c r="G123">
-        <v>1442.68</v>
-      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -5850,9 +5725,6 @@
       <c r="F124">
         <v>1387.36</v>
       </c>
-      <c r="G124">
-        <v>1387.36</v>
-      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
@@ -5871,10 +5743,10 @@
         <v>-44</v>
       </c>
       <c r="F125">
-        <v>1734.57</v>
+        <v>1769.65</v>
       </c>
       <c r="G125">
-        <v>1683.32</v>
+        <v>1689.87</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,7 +5769,7 @@
         <v>1320</v>
       </c>
       <c r="G126">
-        <v>1324.38</v>
+        <v>1337.5</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5940,10 +5812,7 @@
         <v>-270</v>
       </c>
       <c r="F128">
-        <v>69.09</v>
-      </c>
-      <c r="G128">
-        <v>69.09</v>
+        <v>1332.52</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -5966,7 +5835,7 @@
         <v>2237.25</v>
       </c>
       <c r="G129">
-        <v>2187.5300000000002</v>
+        <v>2160.75</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -5989,7 +5858,7 @@
         <v>1320</v>
       </c>
       <c r="G130">
-        <v>1321.3</v>
+        <v>1322.27</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -6012,7 +5881,7 @@
         <v>1657.14</v>
       </c>
       <c r="G131">
-        <v>1544.62</v>
+        <v>1413.33</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -6032,10 +5901,10 @@
         <v>54</v>
       </c>
       <c r="F132">
-        <v>1323.47</v>
+        <v>1564.18</v>
       </c>
       <c r="G132">
-        <v>1405.66</v>
+        <v>1565.18</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6058,7 +5927,7 @@
         <v>1320</v>
       </c>
       <c r="G133">
-        <v>1380</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -6098,10 +5967,10 @@
         <v>11</v>
       </c>
       <c r="F135">
-        <v>1279.29</v>
+        <v>1438.74</v>
       </c>
       <c r="G135">
-        <v>1439.86</v>
+        <v>1594.5</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6123,9 +5992,6 @@
       <c r="F136">
         <v>1320</v>
       </c>
-      <c r="G136">
-        <v>1320</v>
-      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
@@ -6144,10 +6010,10 @@
         <v>-4</v>
       </c>
       <c r="F137">
-        <v>1658.88</v>
+        <v>1741.52</v>
       </c>
       <c r="G137">
-        <v>1472.06</v>
+        <v>1241.29</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -6169,9 +6035,6 @@
       <c r="F138">
         <v>1320</v>
       </c>
-      <c r="G138">
-        <v>1320</v>
-      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
@@ -6190,10 +6053,10 @@
         <v>14</v>
       </c>
       <c r="F139">
-        <v>1464.01</v>
+        <v>1521.19</v>
       </c>
       <c r="G139">
-        <v>1425.97</v>
+        <v>1481.14</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6216,7 +6079,7 @@
         <v>1320</v>
       </c>
       <c r="G140">
-        <v>2554.0700000000002</v>
+        <v>3788.13</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6239,7 +6102,7 @@
         <v>1314</v>
       </c>
       <c r="G141">
-        <v>1289.27</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -6262,7 +6125,7 @@
         <v>1370.28</v>
       </c>
       <c r="G142">
-        <v>1425.16</v>
+        <v>1609.11</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6282,10 +6145,10 @@
         <v>105</v>
       </c>
       <c r="F143">
-        <v>2031.19</v>
+        <v>2065.3000000000002</v>
       </c>
       <c r="G143">
-        <v>1900.53</v>
+        <v>1812.4</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6305,10 +6168,10 @@
         <v>-4</v>
       </c>
       <c r="F144">
-        <v>905.78</v>
+        <v>1355.68</v>
       </c>
       <c r="G144">
-        <v>1140.54</v>
+        <v>1844.81</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6331,7 +6194,7 @@
         <v>1377.55</v>
       </c>
       <c r="G145">
-        <v>1373.51</v>
+        <v>1368.13</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6353,9 +6216,6 @@
       <c r="F146">
         <v>1968.84</v>
       </c>
-      <c r="G146">
-        <v>1968.84</v>
-      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
@@ -6377,7 +6237,7 @@
         <v>1619.93</v>
       </c>
       <c r="G147">
-        <v>1576.57</v>
+        <v>1505.35</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -6400,7 +6260,7 @@
         <v>1378.16</v>
       </c>
       <c r="G148">
-        <v>1395.21</v>
+        <v>1404.51</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -6420,10 +6280,10 @@
         <v>35</v>
       </c>
       <c r="F149">
-        <v>1393.01</v>
+        <v>1508.59</v>
       </c>
       <c r="G149">
-        <v>1416.09</v>
+        <v>1422.34</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6466,7 +6326,7 @@
         <v>1653.15</v>
       </c>
       <c r="G151">
-        <v>1560.36</v>
+        <v>1498.5</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6486,10 +6346,10 @@
         <v>164</v>
       </c>
       <c r="F152">
-        <v>263.42</v>
+        <v>1878.3</v>
       </c>
       <c r="G152">
-        <v>342.25</v>
+        <v>2274.4899999999998</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6511,9 +6371,6 @@
       <c r="F153">
         <v>2222.36</v>
       </c>
-      <c r="G153">
-        <v>2222.36</v>
-      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
@@ -6532,10 +6389,7 @@
         <v>-12</v>
       </c>
       <c r="F154">
-        <v>1522.49</v>
-      </c>
-      <c r="G154">
-        <v>1522.49</v>
+        <v>1660.35</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6558,7 +6412,7 @@
         <v>1320</v>
       </c>
       <c r="G155">
-        <v>1542.32</v>
+        <v>1616.43</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6581,7 +6435,7 @@
         <v>1908.18</v>
       </c>
       <c r="G156">
-        <v>1962.28</v>
+        <v>2070.37</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6604,7 +6458,7 @@
         <v>1377.93</v>
       </c>
       <c r="G157">
-        <v>1434.44</v>
+        <v>1476.82</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6646,9 +6500,6 @@
       <c r="F159">
         <v>1320</v>
       </c>
-      <c r="G159">
-        <v>1320</v>
-      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
@@ -6670,7 +6521,7 @@
         <v>1410.87</v>
       </c>
       <c r="G160">
-        <v>1380.58</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6713,7 +6564,7 @@
         <v>1320</v>
       </c>
       <c r="G162">
-        <v>1482.86</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6735,9 +6586,6 @@
       <c r="F163">
         <v>2000</v>
       </c>
-      <c r="G163">
-        <v>2000</v>
-      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
@@ -6805,7 +6653,7 @@
         <v>1660.51</v>
       </c>
       <c r="G166">
-        <v>1456.21</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -6828,7 +6676,7 @@
         <v>1348.2</v>
       </c>
       <c r="G167">
-        <v>1329.4</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -6874,7 +6722,7 @@
         <v>1550.31</v>
       </c>
       <c r="G169">
-        <v>1439.02</v>
+        <v>660</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -6917,7 +6765,7 @@
         <v>1539.31</v>
       </c>
       <c r="G171">
-        <v>1595.51</v>
+        <v>1625.48</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -6940,7 +6788,7 @@
         <v>1331.11</v>
       </c>
       <c r="G172">
-        <v>1573.01</v>
+        <v>1607.56</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -6963,7 +6811,7 @@
         <v>1560.06</v>
       </c>
       <c r="G173">
-        <v>1443.53</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -6985,9 +6833,6 @@
       <c r="F174">
         <v>1320</v>
       </c>
-      <c r="G174">
-        <v>1320</v>
-      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
@@ -7028,9 +6873,6 @@
       <c r="F176">
         <v>4215.41</v>
       </c>
-      <c r="G176">
-        <v>4215.41</v>
-      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
@@ -7052,7 +6894,7 @@
         <v>2179.5</v>
       </c>
       <c r="G177">
-        <v>1953</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7072,10 +6914,10 @@
         <v>-10</v>
       </c>
       <c r="F178">
-        <v>1427.98</v>
+        <v>1557.26</v>
       </c>
       <c r="G178">
-        <v>1423.13</v>
+        <v>1393.99</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7098,7 +6940,7 @@
         <v>1575.14</v>
       </c>
       <c r="G179">
-        <v>1581.51</v>
+        <v>1617.2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7118,10 +6960,10 @@
         <v>3</v>
       </c>
       <c r="F180">
-        <v>1458.76</v>
+        <v>1553.41</v>
       </c>
       <c r="G180">
-        <v>1450.87</v>
+        <v>1495.7</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7144,7 +6986,7 @@
         <v>1722.64</v>
       </c>
       <c r="G181">
-        <v>1779.36</v>
+        <v>1944.57</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7164,10 +7006,10 @@
         <v>6</v>
       </c>
       <c r="F182">
-        <v>1736.99</v>
+        <v>1953.36</v>
       </c>
       <c r="G182">
-        <v>1815.68</v>
+        <v>1862.9</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7187,10 +7029,10 @@
         <v>7</v>
       </c>
       <c r="F183">
-        <v>1158.25</v>
+        <v>1322.86</v>
       </c>
       <c r="G183">
-        <v>1389.29</v>
+        <v>1512.52</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7213,7 +7055,7 @@
         <v>1426.63</v>
       </c>
       <c r="G184">
-        <v>1393.31</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7253,10 +7095,10 @@
         <v>1564</v>
       </c>
       <c r="F186">
-        <v>1592.95</v>
+        <v>1654.25</v>
       </c>
       <c r="G186">
-        <v>1694.34</v>
+        <v>1584.58</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7276,10 +7118,10 @@
         <v>-48</v>
       </c>
       <c r="F187">
-        <v>1112.5899999999999</v>
+        <v>1403.84</v>
       </c>
       <c r="G187">
-        <v>1123.01</v>
+        <v>1476.94</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7299,10 +7141,10 @@
         <v>113</v>
       </c>
       <c r="F188">
-        <v>1752.78</v>
+        <v>1761.65</v>
       </c>
       <c r="G188">
-        <v>1634.21</v>
+        <v>1584.07</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -7322,10 +7164,10 @@
         <v>25</v>
       </c>
       <c r="F189">
-        <v>1247.28</v>
+        <v>1385.2</v>
       </c>
       <c r="G189">
-        <v>1548.51</v>
+        <v>1777.45</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -7347,9 +7189,6 @@
       <c r="F190">
         <v>1980</v>
       </c>
-      <c r="G190">
-        <v>1980</v>
-      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
@@ -7368,9 +7207,6 @@
         <v>-10</v>
       </c>
       <c r="F191">
-        <v>1694.81</v>
-      </c>
-      <c r="G191">
         <v>1694.81</v>
       </c>
     </row>
@@ -7383,7 +7219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G624"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -7430,7 +7268,7 @@
         <v>2382.5500000000002</v>
       </c>
       <c r="G2">
-        <v>2200.87</v>
+        <v>2019.18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7453,7 +7291,7 @@
         <v>2051.91</v>
       </c>
       <c r="G3">
-        <v>1989.61</v>
+        <v>1943.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7476,7 +7314,7 @@
         <v>2003.11</v>
       </c>
       <c r="G4">
-        <v>1924.02</v>
+        <v>1899.95</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7519,7 +7357,7 @@
         <v>1347.5</v>
       </c>
       <c r="G6">
-        <v>1353.85</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7539,10 +7377,10 @@
         <v>468</v>
       </c>
       <c r="F7">
-        <v>1910.85</v>
+        <v>1916.6</v>
       </c>
       <c r="G7">
-        <v>1869.23</v>
+        <v>1933.83</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7562,10 +7400,10 @@
         <v>-371</v>
       </c>
       <c r="F8">
-        <v>107.45</v>
+        <v>1343.15</v>
       </c>
       <c r="G8">
-        <v>125.32</v>
+        <v>1800.58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -7587,9 +7425,6 @@
       <c r="F9">
         <v>1443.35</v>
       </c>
-      <c r="G9">
-        <v>1443.35</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -7610,9 +7445,6 @@
       <c r="F10">
         <v>1556.71</v>
       </c>
-      <c r="G10">
-        <v>1556.71</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -7673,11 +7505,8 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>44</v>
-      </c>
       <c r="G13">
-        <v>722</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -7723,7 +7552,7 @@
         <v>4795.1000000000004</v>
       </c>
       <c r="G15">
-        <v>3644.12</v>
+        <v>2924.75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -7746,7 +7575,7 @@
         <v>1359.27</v>
       </c>
       <c r="G16">
-        <v>1363.08</v>
+        <v>1363.62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -7769,7 +7598,7 @@
         <v>1705.78</v>
       </c>
       <c r="G17">
-        <v>1554.02</v>
+        <v>1601.87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7792,7 +7621,7 @@
         <v>1320</v>
       </c>
       <c r="G18">
-        <v>1516.67</v>
+        <v>1713.33</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -7815,7 +7644,7 @@
         <v>2015.12</v>
       </c>
       <c r="G19">
-        <v>1876.1</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -7838,7 +7667,7 @@
         <v>1805.72</v>
       </c>
       <c r="G20">
-        <v>1682.86</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7860,9 +7689,6 @@
       <c r="F21">
         <v>1320</v>
       </c>
-      <c r="G21">
-        <v>1320</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -7884,7 +7710,7 @@
         <v>1486.4</v>
       </c>
       <c r="G22">
-        <v>1488.71</v>
+        <v>1490.8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7927,7 +7753,7 @@
         <v>1495.78</v>
       </c>
       <c r="G24">
-        <v>1394</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7949,9 +7775,6 @@
       <c r="F25">
         <v>1355</v>
       </c>
-      <c r="G25">
-        <v>1355</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -7992,9 +7815,6 @@
       <c r="F27">
         <v>2733.33</v>
       </c>
-      <c r="G27">
-        <v>2733.33</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -8016,7 +7836,7 @@
         <v>1634.56</v>
       </c>
       <c r="G28">
-        <v>1535.56</v>
+        <v>1460.56</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8039,7 +7859,7 @@
         <v>1631.89</v>
       </c>
       <c r="G29">
-        <v>1644.73</v>
+        <v>1661.72</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -8082,7 +7902,7 @@
         <v>1320</v>
       </c>
       <c r="G31">
-        <v>1330.59</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -8128,7 +7948,7 @@
         <v>1590.27</v>
       </c>
       <c r="G33">
-        <v>1285.44</v>
+        <v>1133.02</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8150,9 +7970,6 @@
       <c r="F34">
         <v>1335</v>
       </c>
-      <c r="G34">
-        <v>1335</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -8174,7 +7991,7 @@
         <v>1443.84</v>
       </c>
       <c r="G35">
-        <v>1456.27</v>
+        <v>1467.32</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8197,7 +8014,7 @@
         <v>1598.23</v>
       </c>
       <c r="G36">
-        <v>1498.09</v>
+        <v>1340.74</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8220,7 +8037,7 @@
         <v>1383.2</v>
       </c>
       <c r="G37">
-        <v>1351.6</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8243,7 +8060,7 @@
         <v>1507.45</v>
       </c>
       <c r="G38">
-        <v>1476.16</v>
+        <v>1412.67</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8266,7 +8083,7 @@
         <v>1320</v>
       </c>
       <c r="G39">
-        <v>1963.64</v>
+        <v>2331.4299999999998</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8289,7 +8106,7 @@
         <v>1728.42</v>
       </c>
       <c r="G40">
-        <v>1945.98</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8312,7 +8129,7 @@
         <v>1320</v>
       </c>
       <c r="G41">
-        <v>1369.34</v>
+        <v>1381.67</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8334,9 +8151,6 @@
       <c r="F42">
         <v>1320</v>
       </c>
-      <c r="G42">
-        <v>1320</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -8417,9 +8231,6 @@
       <c r="F46">
         <v>1320</v>
       </c>
-      <c r="G46">
-        <v>1320</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -8441,7 +8252,7 @@
         <v>1816.52</v>
       </c>
       <c r="G47">
-        <v>1838.31</v>
+        <v>1990.8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8464,7 +8275,7 @@
         <v>1510</v>
       </c>
       <c r="G48">
-        <v>1568</v>
+        <v>1606.67</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8487,7 +8298,7 @@
         <v>1683.17</v>
       </c>
       <c r="G49">
-        <v>1691.9</v>
+        <v>1697.35</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8553,7 +8364,7 @@
         <v>1352.13</v>
       </c>
       <c r="G52">
-        <v>1393</v>
+        <v>1480.57</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8575,9 +8386,6 @@
       <c r="F53">
         <v>1320</v>
       </c>
-      <c r="G53">
-        <v>1320</v>
-      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -8619,7 +8427,7 @@
         <v>1435.35</v>
       </c>
       <c r="G55">
-        <v>1451.69</v>
+        <v>1465.85</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8685,7 +8493,7 @@
         <v>2887.06</v>
       </c>
       <c r="G58">
-        <v>2719.71</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -8708,7 +8516,7 @@
         <v>1614.24</v>
       </c>
       <c r="G59">
-        <v>1608.51</v>
+        <v>1599.91</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -8731,7 +8539,7 @@
         <v>1424.84</v>
       </c>
       <c r="G60">
-        <v>1545.91</v>
+        <v>1586.27</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -8751,10 +8559,10 @@
         <v>-1</v>
       </c>
       <c r="F61">
-        <v>1319.25</v>
+        <v>1538.1</v>
       </c>
       <c r="G61">
-        <v>1269.99</v>
+        <v>1453.79</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -8777,7 +8585,7 @@
         <v>1560.99</v>
       </c>
       <c r="G62">
-        <v>1437.94</v>
+        <v>1358.32</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -8800,7 +8608,7 @@
         <v>2034.68</v>
       </c>
       <c r="G63">
-        <v>2073.12</v>
+        <v>2130.77</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -8843,7 +8651,7 @@
         <v>1879.29</v>
       </c>
       <c r="G65">
-        <v>1676.78</v>
+        <v>1589.98</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -8886,7 +8694,7 @@
         <v>2136.59</v>
       </c>
       <c r="G67">
-        <v>1728.3</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -8909,7 +8717,7 @@
         <v>1159</v>
       </c>
       <c r="G68">
-        <v>1242.2</v>
+        <v>1616.57</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -8932,7 +8740,7 @@
         <v>1323.77</v>
       </c>
       <c r="G69">
-        <v>1407.38</v>
+        <v>1465.91</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -8952,10 +8760,10 @@
         <v>-2</v>
       </c>
       <c r="F70">
-        <v>882</v>
+        <v>1320</v>
       </c>
       <c r="G70">
-        <v>1128.5</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -8975,10 +8783,10 @@
         <v>5</v>
       </c>
       <c r="F71">
-        <v>1255.78</v>
+        <v>1387.32</v>
       </c>
       <c r="G71">
-        <v>1329.67</v>
+        <v>1389.35</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -8998,10 +8806,10 @@
         <v>-6</v>
       </c>
       <c r="F72">
-        <v>1389.18</v>
+        <v>1424.21</v>
       </c>
       <c r="G72">
-        <v>1407.33</v>
+        <v>1426.41</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -9023,9 +8831,6 @@
       <c r="F73">
         <v>1381.11</v>
       </c>
-      <c r="G73">
-        <v>1381.11</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -9047,7 +8852,7 @@
         <v>1469.83</v>
       </c>
       <c r="G74">
-        <v>1418.18</v>
+        <v>1395.22</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -9070,7 +8875,7 @@
         <v>1800</v>
       </c>
       <c r="G75">
-        <v>1480</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -9112,9 +8917,6 @@
       <c r="F77">
         <v>2776.48</v>
       </c>
-      <c r="G77">
-        <v>2776.48</v>
-      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -9136,7 +8938,7 @@
         <v>1320</v>
       </c>
       <c r="G78">
-        <v>1327</v>
+        <v>1328.75</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -9159,7 +8961,7 @@
         <v>1983.28</v>
       </c>
       <c r="G79">
-        <v>1729.52</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -9182,7 +8984,7 @@
         <v>1375.26</v>
       </c>
       <c r="G80">
-        <v>1396.76</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -9225,7 +9027,7 @@
         <v>2829.74</v>
       </c>
       <c r="G82">
-        <v>3655.44</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -9248,7 +9050,7 @@
         <v>1925.79</v>
       </c>
       <c r="G83">
-        <v>1692.49</v>
+        <v>1459.2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -9270,9 +9072,6 @@
       <c r="F84">
         <v>1548.03</v>
       </c>
-      <c r="G84">
-        <v>1548.03</v>
-      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -9314,7 +9113,7 @@
         <v>1324.44</v>
       </c>
       <c r="G86">
-        <v>1323.64</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -9357,7 +9156,7 @@
         <v>1220.1600000000001</v>
       </c>
       <c r="G88">
-        <v>1273</v>
+        <v>1357.06</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -9380,7 +9179,7 @@
         <v>1160</v>
       </c>
       <c r="G89">
-        <v>1400.91</v>
+        <v>1491.25</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -9403,7 +9202,7 @@
         <v>1397.54</v>
       </c>
       <c r="G90">
-        <v>1385.03</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -9426,7 +9225,7 @@
         <v>1320</v>
       </c>
       <c r="G91">
-        <v>1363</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -9469,7 +9268,7 @@
         <v>1330</v>
       </c>
       <c r="G93">
-        <v>1196</v>
+        <v>1106.67</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -9492,7 +9291,7 @@
         <v>1320</v>
       </c>
       <c r="G94">
-        <v>1354.88</v>
+        <v>1372.32</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -9554,9 +9353,6 @@
       <c r="F97">
         <v>1424.64</v>
       </c>
-      <c r="G97">
-        <v>1424.64</v>
-      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
@@ -9577,9 +9373,6 @@
       <c r="F98">
         <v>1302</v>
       </c>
-      <c r="G98">
-        <v>1302</v>
-      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
@@ -9621,7 +9414,7 @@
         <v>1365.24</v>
       </c>
       <c r="G100">
-        <v>1360.6</v>
+        <v>1355.95</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -9643,9 +9436,6 @@
       <c r="F101">
         <v>1470.68</v>
       </c>
-      <c r="G101">
-        <v>1470.68</v>
-      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -9667,7 +9457,7 @@
         <v>1320</v>
       </c>
       <c r="G102">
-        <v>1896.71</v>
+        <v>1992.83</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -9689,9 +9479,6 @@
       <c r="F103">
         <v>2008.8</v>
       </c>
-      <c r="G103">
-        <v>2008.8</v>
-      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
@@ -9733,7 +9520,7 @@
         <v>1302</v>
       </c>
       <c r="G105">
-        <v>1522.91</v>
+        <v>1567.1</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9756,7 +9543,7 @@
         <v>1559.98</v>
       </c>
       <c r="G106">
-        <v>1494.24</v>
+        <v>1340.83</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9779,7 +9566,7 @@
         <v>1542</v>
       </c>
       <c r="G107">
-        <v>1425.19</v>
+        <v>1366.78</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -9802,7 +9589,7 @@
         <v>1881.25</v>
       </c>
       <c r="G108">
-        <v>1568.54</v>
+        <v>1516.43</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -9845,7 +9632,7 @@
         <v>1338.83</v>
       </c>
       <c r="G110">
-        <v>1326.28</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9865,10 +9652,10 @@
         <v>-11</v>
       </c>
       <c r="F111">
-        <v>299.27999999999997</v>
+        <v>1521.4</v>
       </c>
       <c r="G111">
-        <v>333.85</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9891,7 +9678,7 @@
         <v>1657.41</v>
       </c>
       <c r="G112">
-        <v>1601.21</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -9933,9 +9720,6 @@
       <c r="F114">
         <v>2172.91</v>
       </c>
-      <c r="G114">
-        <v>2172.91</v>
-      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
@@ -9977,7 +9761,7 @@
         <v>1320</v>
       </c>
       <c r="G116">
-        <v>1654.83</v>
+        <v>1822.24</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -10000,7 +9784,7 @@
         <v>1225.71</v>
       </c>
       <c r="G117">
-        <v>1368.79</v>
+        <v>1511.86</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -10019,9 +9803,6 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
@@ -10043,7 +9824,7 @@
         <v>1814.35</v>
       </c>
       <c r="G119">
-        <v>1401.75</v>
+        <v>1126.69</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -10063,10 +9844,10 @@
         <v>-7</v>
       </c>
       <c r="F120">
-        <v>1511.55</v>
+        <v>1726.63</v>
       </c>
       <c r="G120">
-        <v>1556.42</v>
+        <v>1915.35</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -10089,7 +9870,7 @@
         <v>2684.1</v>
       </c>
       <c r="G121">
-        <v>2901.8</v>
+        <v>3119.5</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -10112,7 +9893,7 @@
         <v>1400.89</v>
       </c>
       <c r="G122">
-        <v>1362.2</v>
+        <v>1323.51</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -10135,7 +9916,7 @@
         <v>1389.44</v>
       </c>
       <c r="G123">
-        <v>1383.56</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -10178,7 +9959,7 @@
         <v>1834.44</v>
       </c>
       <c r="G125">
-        <v>1667.88</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -10220,9 +10001,6 @@
       <c r="F127">
         <v>1550.4</v>
       </c>
-      <c r="G127">
-        <v>1550.4</v>
-      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
@@ -10244,7 +10022,7 @@
         <v>1320</v>
       </c>
       <c r="G128">
-        <v>1410</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -10267,7 +10045,7 @@
         <v>1579.44</v>
       </c>
       <c r="G129">
-        <v>1570.27</v>
+        <v>1559.95</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -10289,9 +10067,6 @@
       <c r="F130">
         <v>1848</v>
       </c>
-      <c r="G130">
-        <v>1848</v>
-      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
@@ -10313,7 +10088,7 @@
         <v>1513.01</v>
       </c>
       <c r="G131">
-        <v>1801.16</v>
+        <v>2420.69</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -10335,9 +10110,6 @@
       <c r="F132">
         <v>1595.41</v>
       </c>
-      <c r="G132">
-        <v>1595.41</v>
-      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
@@ -10359,7 +10131,7 @@
         <v>1435.56</v>
       </c>
       <c r="G133">
-        <v>1479.08</v>
+        <v>1509.91</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -10382,7 +10154,7 @@
         <v>1346.16</v>
       </c>
       <c r="G134">
-        <v>1402.47</v>
+        <v>1627.74</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -10425,10 +10197,10 @@
         <v>26</v>
       </c>
       <c r="F136">
-        <v>1198.8499999999999</v>
+        <v>1406.26</v>
       </c>
       <c r="G136">
-        <v>1328.34</v>
+        <v>1394.31</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -10451,7 +10223,7 @@
         <v>1320</v>
       </c>
       <c r="G137">
-        <v>1327.8</v>
+        <v>1331.7</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -10474,7 +10246,7 @@
         <v>3960</v>
       </c>
       <c r="G138">
-        <v>2200</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -10496,9 +10268,6 @@
       <c r="F139">
         <v>1353.13</v>
       </c>
-      <c r="G139">
-        <v>1353.13</v>
-      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -10520,7 +10289,7 @@
         <v>1399.91</v>
       </c>
       <c r="G140">
-        <v>1492.79</v>
+        <v>1545.87</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -10543,7 +10312,7 @@
         <v>1340.55</v>
       </c>
       <c r="G141">
-        <v>1473</v>
+        <v>1506.11</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -10566,7 +10335,7 @@
         <v>1484.46</v>
       </c>
       <c r="G142">
-        <v>1598.4</v>
+        <v>1838.01</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -10588,9 +10357,6 @@
       <c r="F143">
         <v>1900</v>
       </c>
-      <c r="G143">
-        <v>1900</v>
-      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -10612,7 +10378,7 @@
         <v>1538.88</v>
       </c>
       <c r="G144">
-        <v>1569.61</v>
+        <v>1600.34</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -10635,7 +10401,7 @@
         <v>1356.75</v>
       </c>
       <c r="G145">
-        <v>1403.84</v>
+        <v>1460.35</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -10657,9 +10423,6 @@
       <c r="F146">
         <v>2500</v>
       </c>
-      <c r="G146">
-        <v>2500</v>
-      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
@@ -10680,9 +10443,6 @@
       <c r="F147">
         <v>1808.04</v>
       </c>
-      <c r="G147">
-        <v>1808.04</v>
-      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
@@ -10704,7 +10464,7 @@
         <v>1388.33</v>
       </c>
       <c r="G148">
-        <v>1469.42</v>
+        <v>1712.68</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -10726,9 +10486,6 @@
       <c r="F149">
         <v>1320</v>
       </c>
-      <c r="G149">
-        <v>1320</v>
-      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
@@ -10746,12 +10503,6 @@
       <c r="E150">
         <v>-2</v>
       </c>
-      <c r="F150">
-        <v>14.15</v>
-      </c>
-      <c r="G150">
-        <v>14.15</v>
-      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
@@ -10792,9 +10543,6 @@
       <c r="F152">
         <v>1341.5</v>
       </c>
-      <c r="G152">
-        <v>1341.5</v>
-      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
@@ -10816,7 +10564,7 @@
         <v>1454.11</v>
       </c>
       <c r="G153">
-        <v>1433.38</v>
+        <v>1391.93</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -10839,7 +10587,7 @@
         <v>1331.11</v>
       </c>
       <c r="G154">
-        <v>1455.61</v>
+        <v>1474.77</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -10882,7 +10630,7 @@
         <v>1363</v>
       </c>
       <c r="G156">
-        <v>1299.51</v>
+        <v>1267.77</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -10968,7 +10716,7 @@
         <v>3000</v>
       </c>
       <c r="G160">
-        <v>2250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -10991,7 +10739,7 @@
         <v>1431.24</v>
       </c>
       <c r="G161">
-        <v>1393.32</v>
+        <v>1298.5</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -11013,9 +10761,6 @@
       <c r="F162">
         <v>1406.16</v>
       </c>
-      <c r="G162">
-        <v>1406.16</v>
-      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
@@ -11056,9 +10801,6 @@
       <c r="F164">
         <v>1386.11</v>
       </c>
-      <c r="G164">
-        <v>1386.11</v>
-      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
@@ -11080,7 +10822,7 @@
         <v>1631.9</v>
       </c>
       <c r="G165">
-        <v>1497.08</v>
+        <v>1362.26</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -11103,7 +10845,7 @@
         <v>1537.6</v>
       </c>
       <c r="G166">
-        <v>1484.62</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -11125,9 +10867,6 @@
       <c r="F167">
         <v>2629.32</v>
       </c>
-      <c r="G167">
-        <v>2629.32</v>
-      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
@@ -11186,7 +10925,7 @@
         <v>3</v>
       </c>
       <c r="G170">
-        <v>583.33000000000004</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -11208,9 +10947,6 @@
       <c r="F171">
         <v>1212</v>
       </c>
-      <c r="G171">
-        <v>1212</v>
-      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
@@ -11231,9 +10967,6 @@
       <c r="F172">
         <v>1608.15</v>
       </c>
-      <c r="G172">
-        <v>1608.15</v>
-      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
@@ -11255,7 +10988,7 @@
         <v>1424.64</v>
       </c>
       <c r="G173">
-        <v>1688.06</v>
+        <v>1819.76</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -11298,7 +11031,7 @@
         <v>1341.5</v>
       </c>
       <c r="G175">
-        <v>1369.21</v>
+        <v>1424.64</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -11321,7 +11054,7 @@
         <v>1921</v>
       </c>
       <c r="G176">
-        <v>1739.56</v>
+        <v>1679.07</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -11344,7 +11077,7 @@
         <v>1473.83</v>
       </c>
       <c r="G177">
-        <v>1338.19</v>
+        <v>660</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -11366,9 +11099,6 @@
       <c r="F178">
         <v>1768.92</v>
       </c>
-      <c r="G178">
-        <v>1768.92</v>
-      </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
@@ -11390,7 +11120,7 @@
         <v>1495</v>
       </c>
       <c r="G179">
-        <v>1450</v>
+        <v>1427.5</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -11432,9 +11162,6 @@
       <c r="F181">
         <v>6772.5</v>
       </c>
-      <c r="G181">
-        <v>6772.5</v>
-      </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
@@ -11456,7 +11183,7 @@
         <v>1368.08</v>
       </c>
       <c r="G182">
-        <v>1382.01</v>
+        <v>1395.95</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -11521,9 +11248,6 @@
       <c r="F185">
         <v>1320</v>
       </c>
-      <c r="G185">
-        <v>1320</v>
-      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
@@ -11545,7 +11269,7 @@
         <v>1481.43</v>
       </c>
       <c r="G186">
-        <v>1576.3</v>
+        <v>1623.73</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -11568,7 +11292,7 @@
         <v>1626.14</v>
       </c>
       <c r="G187">
-        <v>1588.14</v>
+        <v>1557.73</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -11591,7 +11315,7 @@
         <v>1751.05</v>
       </c>
       <c r="G188">
-        <v>1636.48</v>
+        <v>1464.62</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -11614,7 +11338,7 @@
         <v>6143.8</v>
       </c>
       <c r="G189">
-        <v>4982.58</v>
+        <v>4053.6</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -11636,9 +11360,6 @@
       <c r="F190">
         <v>1907.58</v>
       </c>
-      <c r="G190">
-        <v>1907.58</v>
-      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
@@ -11659,9 +11380,6 @@
       <c r="F191">
         <v>8442.4599999999991</v>
       </c>
-      <c r="G191">
-        <v>8442.4599999999991</v>
-      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
@@ -11683,7 +11401,7 @@
         <v>4143.59</v>
       </c>
       <c r="G192">
-        <v>3636.5</v>
+        <v>3230.83</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -11706,7 +11424,7 @@
         <v>1502.18</v>
       </c>
       <c r="G193">
-        <v>1636.35</v>
+        <v>1701.12</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -11726,10 +11444,10 @@
         <v>-5</v>
       </c>
       <c r="F194">
-        <v>1300.33</v>
+        <v>1515.76</v>
       </c>
       <c r="G194">
-        <v>1319.95</v>
+        <v>1388.62</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -11752,7 +11470,7 @@
         <v>1757.37</v>
       </c>
       <c r="G195">
-        <v>1582.82</v>
+        <v>1424.51</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -11795,7 +11513,7 @@
         <v>1802.4</v>
       </c>
       <c r="G197">
-        <v>1794.79</v>
+        <v>1756.74</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -11818,7 +11536,7 @@
         <v>1713.67</v>
       </c>
       <c r="G198">
-        <v>1745.5</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -11841,7 +11559,7 @@
         <v>1385.36</v>
       </c>
       <c r="G199">
-        <v>1509.56</v>
+        <v>1645.06</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -11861,10 +11579,10 @@
         <v>263</v>
       </c>
       <c r="F200">
-        <v>1707.7</v>
+        <v>1743.12</v>
       </c>
       <c r="G200">
-        <v>1647.07</v>
+        <v>1640.46</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -11884,10 +11602,10 @@
         <v>212</v>
       </c>
       <c r="F201">
-        <v>1820.88</v>
+        <v>1859.27</v>
       </c>
       <c r="G201">
-        <v>1790.44</v>
+        <v>1775.94</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -11910,7 +11628,7 @@
         <v>1777.56</v>
       </c>
       <c r="G202">
-        <v>1625.04</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -11933,7 +11651,7 @@
         <v>1410.74</v>
       </c>
       <c r="G203">
-        <v>1442.93</v>
+        <v>1539.48</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -11956,7 +11674,7 @@
         <v>1715.86</v>
       </c>
       <c r="G204">
-        <v>1875.97</v>
+        <v>2013.84</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -11978,9 +11696,6 @@
       <c r="F205">
         <v>2081</v>
       </c>
-      <c r="G205">
-        <v>2081</v>
-      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
@@ -11999,10 +11714,10 @@
         <v>307</v>
       </c>
       <c r="F206">
-        <v>1356.82</v>
+        <v>2239.35</v>
       </c>
       <c r="G206">
-        <v>1248.1500000000001</v>
+        <v>1954.52</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -12025,7 +11740,7 @@
         <v>1580</v>
       </c>
       <c r="G207">
-        <v>1273.33</v>
+        <v>660</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -12048,7 +11763,7 @@
         <v>2205.86</v>
       </c>
       <c r="G208">
-        <v>1837.38</v>
+        <v>1407.49</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -12071,7 +11786,7 @@
         <v>1152.4100000000001</v>
       </c>
       <c r="G209">
-        <v>1194.7</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -12094,7 +11809,7 @@
         <v>1793.7</v>
       </c>
       <c r="G210">
-        <v>1570.31</v>
+        <v>1391.59</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -12116,9 +11831,6 @@
       <c r="F211">
         <v>1850</v>
       </c>
-      <c r="G211">
-        <v>1850</v>
-      </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
@@ -12139,9 +11851,6 @@
       <c r="F212">
         <v>1320</v>
       </c>
-      <c r="G212">
-        <v>1320</v>
-      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
@@ -12163,7 +11872,7 @@
         <v>1830.83</v>
       </c>
       <c r="G213">
-        <v>1830.68</v>
+        <v>1830.63</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -12183,10 +11892,10 @@
         <v>46</v>
       </c>
       <c r="F214">
-        <v>1763.83</v>
+        <v>1795.18</v>
       </c>
       <c r="G214">
-        <v>1781.97</v>
+        <v>1827.37</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -12208,9 +11917,6 @@
       <c r="F215">
         <v>2000</v>
       </c>
-      <c r="G215">
-        <v>2000</v>
-      </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
@@ -12232,7 +11938,7 @@
         <v>1787.1</v>
       </c>
       <c r="G216">
-        <v>1870.7</v>
+        <v>1976.58</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -12255,7 +11961,7 @@
         <v>1813.59</v>
       </c>
       <c r="G217">
-        <v>1693.51</v>
+        <v>1614.71</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -12278,7 +11984,7 @@
         <v>1363</v>
       </c>
       <c r="G218">
-        <v>1341.5</v>
+        <v>1334.33</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -12298,10 +12004,10 @@
         <v>10</v>
       </c>
       <c r="F219">
-        <v>2681.91</v>
+        <v>3573.72</v>
       </c>
       <c r="G219">
-        <v>2084.5700000000002</v>
+        <v>1913.9</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -12324,7 +12030,7 @@
         <v>1342.33</v>
       </c>
       <c r="G220">
-        <v>1347.5</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -12346,9 +12052,6 @@
       <c r="F221">
         <v>2420</v>
       </c>
-      <c r="G221">
-        <v>2420</v>
-      </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -12370,7 +12073,7 @@
         <v>2009.65</v>
       </c>
       <c r="G222">
-        <v>1758.25</v>
+        <v>1642.22</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -12392,9 +12095,6 @@
       <c r="F223">
         <v>1424.64</v>
       </c>
-      <c r="G223">
-        <v>1424.64</v>
-      </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
@@ -12416,7 +12116,7 @@
         <v>1926.28</v>
       </c>
       <c r="G224">
-        <v>1857.28</v>
+        <v>1774.87</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -12439,7 +12139,7 @@
         <v>1742.38</v>
       </c>
       <c r="G225">
-        <v>1643.22</v>
+        <v>1524.23</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -12462,7 +12162,7 @@
         <v>1320</v>
       </c>
       <c r="G226">
-        <v>1196.55</v>
+        <v>1564.77</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -12485,7 +12185,7 @@
         <v>1611.9</v>
       </c>
       <c r="G227">
-        <v>1602.97</v>
+        <v>1600.66</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -12504,12 +12204,6 @@
       <c r="E228">
         <v>-6</v>
       </c>
-      <c r="F228">
-        <v>8.48</v>
-      </c>
-      <c r="G228">
-        <v>8.48</v>
-      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
@@ -12528,10 +12222,10 @@
         <v>15</v>
       </c>
       <c r="F229">
-        <v>1569.07</v>
+        <v>1681.15</v>
       </c>
       <c r="G229">
-        <v>1559.33</v>
+        <v>1552.83</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -12553,9 +12247,6 @@
       <c r="F230">
         <v>2500</v>
       </c>
-      <c r="G230">
-        <v>2500</v>
-      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
@@ -12577,7 +12268,7 @@
         <v>1351.36</v>
       </c>
       <c r="G231">
-        <v>1335.68</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -12600,7 +12291,7 @@
         <v>1600.95</v>
       </c>
       <c r="G232">
-        <v>1512.17</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -12620,10 +12311,10 @@
         <v>7</v>
       </c>
       <c r="F233">
-        <v>1642.28</v>
+        <v>1861.25</v>
       </c>
       <c r="G233">
-        <v>1487.16</v>
+        <v>1547.21</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -12646,7 +12337,7 @@
         <v>1402.01</v>
       </c>
       <c r="G234">
-        <v>1463.9</v>
+        <v>1546.42</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -12669,7 +12360,7 @@
         <v>1964.4</v>
       </c>
       <c r="G235">
-        <v>2049.2600000000002</v>
+        <v>2168.06</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -12692,7 +12383,7 @@
         <v>1526.67</v>
       </c>
       <c r="G236">
-        <v>1620</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -12735,7 +12426,7 @@
         <v>1613.68</v>
       </c>
       <c r="G238">
-        <v>1468.98</v>
+        <v>1374.23</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -12758,7 +12449,7 @@
         <v>1350.38</v>
       </c>
       <c r="G239">
-        <v>1349.31</v>
+        <v>1348.25</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -12781,7 +12472,7 @@
         <v>1393.82</v>
       </c>
       <c r="G240">
-        <v>1363.5</v>
+        <v>1339.24</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -12801,10 +12492,10 @@
         <v>7</v>
       </c>
       <c r="F241">
-        <v>1168.9000000000001</v>
+        <v>1334.97</v>
       </c>
       <c r="G241">
-        <v>1283.5</v>
+        <v>1344.61</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -12827,7 +12518,7 @@
         <v>1320</v>
       </c>
       <c r="G242">
-        <v>1337.57</v>
+        <v>1346.35</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -12850,7 +12541,7 @@
         <v>1363</v>
       </c>
       <c r="G243">
-        <v>1353.24</v>
+        <v>1349.69</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -12870,10 +12561,10 @@
         <v>2</v>
       </c>
       <c r="F244">
-        <v>1470.01</v>
+        <v>1570.98</v>
       </c>
       <c r="G244">
-        <v>1518.28</v>
+        <v>1612.31</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -12896,7 +12587,7 @@
         <v>1392.32</v>
       </c>
       <c r="G245">
-        <v>1418.96</v>
+        <v>1472.25</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -12919,7 +12610,7 @@
         <v>1456.71</v>
       </c>
       <c r="G246">
-        <v>1437.68</v>
+        <v>1417.7</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -12942,7 +12633,7 @@
         <v>1630.16</v>
       </c>
       <c r="G247">
-        <v>1611.48</v>
+        <v>1424.64</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -12965,7 +12656,7 @@
         <v>1428.59</v>
       </c>
       <c r="G248">
-        <v>1391.35</v>
+        <v>1359.99</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -12988,7 +12679,7 @@
         <v>1360</v>
       </c>
       <c r="G249">
-        <v>1379.46</v>
+        <v>1384.32</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -13011,7 +12702,7 @@
         <v>1214.48</v>
       </c>
       <c r="G250">
-        <v>1672.57</v>
+        <v>2283.36</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -13031,10 +12722,10 @@
         <v>20</v>
       </c>
       <c r="F251">
-        <v>1463.56</v>
+        <v>1979.65</v>
       </c>
       <c r="G251">
-        <v>1558.79</v>
+        <v>2097.29</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -13077,10 +12768,10 @@
         <v>9</v>
       </c>
       <c r="F253">
-        <v>1301.18</v>
+        <v>1377.72</v>
       </c>
       <c r="G253">
-        <v>1397.81</v>
+        <v>1462.23</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -13102,9 +12793,6 @@
       <c r="F254">
         <v>1320</v>
       </c>
-      <c r="G254">
-        <v>1320</v>
-      </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
@@ -13123,10 +12811,10 @@
         <v>-1</v>
       </c>
       <c r="F255">
-        <v>1324</v>
+        <v>1588.8</v>
       </c>
       <c r="G255">
-        <v>1333.97</v>
+        <v>1345.93</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -13149,7 +12837,7 @@
         <v>1575.4</v>
       </c>
       <c r="G256">
-        <v>1619.36</v>
+        <v>1652.32</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -13172,7 +12860,7 @@
         <v>2774.28</v>
       </c>
       <c r="G257">
-        <v>2183.71</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -13214,9 +12902,6 @@
       <c r="F259">
         <v>1372.32</v>
       </c>
-      <c r="G259">
-        <v>1372.32</v>
-      </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
@@ -13238,7 +12923,7 @@
         <v>1463.31</v>
       </c>
       <c r="G260">
-        <v>1430.13</v>
+        <v>1400.64</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -13304,7 +12989,7 @@
         <v>1333.7</v>
       </c>
       <c r="G263">
-        <v>1383.26</v>
+        <v>1420.44</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -13327,7 +13012,7 @@
         <v>1800</v>
       </c>
       <c r="G264">
-        <v>1307.33</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -13349,9 +13034,6 @@
       <c r="F265">
         <v>1424.64</v>
       </c>
-      <c r="G265">
-        <v>1424.64</v>
-      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
@@ -13372,9 +13054,6 @@
       <c r="F266">
         <v>2071.6799999999998</v>
       </c>
-      <c r="G266">
-        <v>2071.6799999999998</v>
-      </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
@@ -13396,7 +13075,7 @@
         <v>1437.89</v>
       </c>
       <c r="G267">
-        <v>1482.16</v>
+        <v>1585.47</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -13436,10 +13115,10 @@
         <v>-1</v>
       </c>
       <c r="F269">
-        <v>1925.13</v>
+        <v>2887.7</v>
       </c>
       <c r="G269">
-        <v>1440.01</v>
+        <v>1424.64</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -13462,7 +13141,7 @@
         <v>1658.11</v>
       </c>
       <c r="G270">
-        <v>1618.94</v>
+        <v>1573.24</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -13485,7 +13164,7 @@
         <v>2480.6999999999998</v>
       </c>
       <c r="G271">
-        <v>2207.4699999999998</v>
+        <v>2098.1799999999998</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -13508,7 +13187,7 @@
         <v>1395.47</v>
       </c>
       <c r="G272">
-        <v>1495.21</v>
+        <v>1694.67</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -13530,9 +13209,6 @@
       <c r="F273">
         <v>1406.16</v>
       </c>
-      <c r="G273">
-        <v>1406.16</v>
-      </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
@@ -13553,9 +13229,6 @@
       <c r="F274">
         <v>3058.7</v>
       </c>
-      <c r="G274">
-        <v>3058.7</v>
-      </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
@@ -13576,9 +13249,6 @@
       <c r="F275">
         <v>1320</v>
       </c>
-      <c r="G275">
-        <v>1320</v>
-      </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
@@ -13600,7 +13270,7 @@
         <v>1320</v>
       </c>
       <c r="G276">
-        <v>1458.37</v>
+        <v>1504.49</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -13622,9 +13292,6 @@
       <c r="F277">
         <v>1320</v>
       </c>
-      <c r="G277">
-        <v>1320</v>
-      </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
@@ -13643,10 +13310,10 @@
         <v>18</v>
       </c>
       <c r="F278">
-        <v>1539.14</v>
+        <v>1605.8</v>
       </c>
       <c r="G278">
-        <v>1455.46</v>
+        <v>1460.72</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
@@ -13689,7 +13356,7 @@
         <v>1923.05</v>
       </c>
       <c r="G280">
-        <v>1633.23</v>
+        <v>1426.21</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -13711,9 +13378,6 @@
       <c r="F281">
         <v>1302</v>
       </c>
-      <c r="G281">
-        <v>1302</v>
-      </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
@@ -13735,7 +13399,7 @@
         <v>3017.2</v>
       </c>
       <c r="G282">
-        <v>7609.47</v>
+        <v>12201.74</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -13758,7 +13422,7 @@
         <v>1884.68</v>
       </c>
       <c r="G283">
-        <v>1711.01</v>
+        <v>1595.23</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -13821,7 +13485,7 @@
         <v>1619.88</v>
       </c>
       <c r="G286">
-        <v>1497.29</v>
+        <v>1398.05</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -13867,7 +13531,7 @@
         <v>1320</v>
       </c>
       <c r="G288">
-        <v>1336.83</v>
+        <v>1362.08</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -13912,9 +13576,6 @@
       <c r="F290">
         <v>1406.16</v>
       </c>
-      <c r="G290">
-        <v>1406.16</v>
-      </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
@@ -13933,10 +13594,10 @@
         <v>2</v>
       </c>
       <c r="F291">
-        <v>1315.3</v>
+        <v>1514.61</v>
       </c>
       <c r="G291">
-        <v>1523.29</v>
+        <v>1723.71</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -13959,7 +13620,7 @@
         <v>1556.77</v>
       </c>
       <c r="G292">
-        <v>1463.42</v>
+        <v>1416.74</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
@@ -13982,7 +13643,7 @@
         <v>1482.4</v>
       </c>
       <c r="G293">
-        <v>1639.13</v>
+        <v>1748.84</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
@@ -14025,7 +13686,7 @@
         <v>1605.32</v>
       </c>
       <c r="G295">
-        <v>1465.1</v>
+        <v>1421.28</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -14048,7 +13709,7 @@
         <v>1414.58</v>
       </c>
       <c r="G296">
-        <v>1376.31</v>
+        <v>1299.76</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -14071,7 +13732,7 @@
         <v>1535.57</v>
       </c>
       <c r="G297">
-        <v>1564.14</v>
+        <v>1635.55</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
@@ -14110,9 +13771,6 @@
       <c r="E299">
         <v>2</v>
       </c>
-      <c r="G299">
-        <v>7.59</v>
-      </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
@@ -14134,7 +13792,7 @@
         <v>1420.16</v>
       </c>
       <c r="G300">
-        <v>1419.26</v>
+        <v>1417.92</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -14156,9 +13814,6 @@
       <c r="F301">
         <v>1597.44</v>
       </c>
-      <c r="G301">
-        <v>1597.44</v>
-      </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
@@ -14180,7 +13835,7 @@
         <v>2188.96</v>
       </c>
       <c r="G302">
-        <v>1817.26</v>
+        <v>1445.56</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
@@ -14202,9 +13857,6 @@
       <c r="F303">
         <v>1424.64</v>
       </c>
-      <c r="G303">
-        <v>1424.64</v>
-      </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
@@ -14226,7 +13878,7 @@
         <v>1424.64</v>
       </c>
       <c r="G304">
-        <v>1571.98</v>
+        <v>1719.32</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
@@ -14248,9 +13900,6 @@
       <c r="F305">
         <v>1721.76</v>
       </c>
-      <c r="G305">
-        <v>1721.76</v>
-      </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
@@ -14292,7 +13941,7 @@
         <v>1441</v>
       </c>
       <c r="G307">
-        <v>1505.75</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -14315,7 +13964,7 @@
         <v>2280.63</v>
       </c>
       <c r="G308">
-        <v>1818.23</v>
+        <v>1471.43</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -14338,7 +13987,7 @@
         <v>1921.18</v>
       </c>
       <c r="G309">
-        <v>1754.31</v>
+        <v>1531.81</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
@@ -14440,9 +14089,6 @@
       <c r="F314">
         <v>2000</v>
       </c>
-      <c r="G314">
-        <v>2000</v>
-      </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
@@ -14546,9 +14192,6 @@
       <c r="F319">
         <v>1417.92</v>
       </c>
-      <c r="G319">
-        <v>1417.92</v>
-      </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
@@ -14569,9 +14212,6 @@
       <c r="F320">
         <v>2040</v>
       </c>
-      <c r="G320">
-        <v>2040</v>
-      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
@@ -14593,7 +14233,7 @@
         <v>1661.33</v>
       </c>
       <c r="G321">
-        <v>1433.78</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
@@ -14616,7 +14256,7 @@
         <v>3589.32</v>
       </c>
       <c r="G322">
-        <v>3089.66</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
@@ -14639,7 +14279,7 @@
         <v>1892.46</v>
       </c>
       <c r="G323">
-        <v>1824.8</v>
+        <v>1802.24</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
@@ -14662,7 +14302,7 @@
         <v>1324.41</v>
       </c>
       <c r="G324">
-        <v>1525.08</v>
+        <v>1792.64</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -14708,7 +14348,7 @@
         <v>4424.99</v>
       </c>
       <c r="G326">
-        <v>3557.88</v>
+        <v>2690.77</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -14750,9 +14390,6 @@
       <c r="F328">
         <v>1406.16</v>
       </c>
-      <c r="G328">
-        <v>1406.16</v>
-      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
@@ -14811,10 +14448,10 @@
         <v>-2</v>
       </c>
       <c r="F331">
-        <v>1749.43</v>
+        <v>1787.33</v>
       </c>
       <c r="G331">
-        <v>1660.99</v>
+        <v>1570.62</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
@@ -14837,7 +14474,7 @@
         <v>2038.58</v>
       </c>
       <c r="G332">
-        <v>2140.38</v>
+        <v>2271.2800000000002</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
@@ -14857,10 +14494,10 @@
         <v>-6</v>
       </c>
       <c r="F333">
-        <v>1290.8900000000001</v>
+        <v>1768.14</v>
       </c>
       <c r="G333">
-        <v>1190.83</v>
+        <v>1545.47</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
@@ -14880,10 +14517,10 @@
         <v>1</v>
       </c>
       <c r="F334">
-        <v>1507.71</v>
+        <v>1539.12</v>
       </c>
       <c r="G334">
-        <v>1547.62</v>
+        <v>1586.73</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -14903,10 +14540,10 @@
         <v>-4</v>
       </c>
       <c r="F335">
-        <v>1073.33</v>
+        <v>1440.89</v>
       </c>
       <c r="G335">
-        <v>1218.99</v>
+        <v>1407.66</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -14926,10 +14563,10 @@
         <v>-10</v>
       </c>
       <c r="F336">
-        <v>1449.48</v>
+        <v>1464.36</v>
       </c>
       <c r="G336">
-        <v>1433.3</v>
+        <v>1416.25</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -14949,10 +14586,10 @@
         <v>1</v>
       </c>
       <c r="F337">
-        <v>1166.6500000000001</v>
+        <v>1398.78</v>
       </c>
       <c r="G337">
-        <v>1274.55</v>
+        <v>1367.04</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
@@ -14972,10 +14609,10 @@
         <v>2</v>
       </c>
       <c r="F338">
-        <v>714.44</v>
+        <v>1423.38</v>
       </c>
       <c r="G338">
-        <v>997.72</v>
+        <v>1451.49</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -14998,7 +14635,7 @@
         <v>1267.81</v>
       </c>
       <c r="G339">
-        <v>1318.27</v>
+        <v>1375.93</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
@@ -15021,7 +14658,7 @@
         <v>1326</v>
       </c>
       <c r="G340">
-        <v>1323.43</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -15044,7 +14681,7 @@
         <v>1414.18</v>
       </c>
       <c r="G341">
-        <v>1349.28</v>
+        <v>1397.45</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -15067,7 +14704,7 @@
         <v>1459.8</v>
       </c>
       <c r="G342">
-        <v>1442.51</v>
+        <v>1494.44</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
@@ -15090,7 +14727,7 @@
         <v>1372.32</v>
       </c>
       <c r="G343">
-        <v>1487.36</v>
+        <v>1564.05</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -15110,10 +14747,10 @@
         <v>2</v>
       </c>
       <c r="F344">
-        <v>1336.01</v>
+        <v>1365.55</v>
       </c>
       <c r="G344">
-        <v>1388.36</v>
+        <v>1438.53</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -15136,7 +14773,7 @@
         <v>1396.3</v>
       </c>
       <c r="G345">
-        <v>1360.1</v>
+        <v>1293.28</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
@@ -15159,7 +14796,7 @@
         <v>1423.94</v>
       </c>
       <c r="G346">
-        <v>1372.94</v>
+        <v>1336.11</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -15182,7 +14819,7 @@
         <v>1425.24</v>
       </c>
       <c r="G347">
-        <v>1464.83</v>
+        <v>1500.65</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
@@ -15202,10 +14839,10 @@
         <v>9</v>
       </c>
       <c r="F348">
-        <v>1356.51</v>
+        <v>1372.16</v>
       </c>
       <c r="G348">
-        <v>1371.86</v>
+        <v>1386.46</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
@@ -15228,7 +14865,7 @@
         <v>1424.64</v>
       </c>
       <c r="G349">
-        <v>1482.61</v>
+        <v>1494.2</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
@@ -15251,7 +14888,7 @@
         <v>1389.76</v>
       </c>
       <c r="G350">
-        <v>1444.93</v>
+        <v>1472.51</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -15274,7 +14911,7 @@
         <v>1417.74</v>
       </c>
       <c r="G351">
-        <v>1997.46</v>
+        <v>2273.52</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -15297,7 +14934,7 @@
         <v>1389.09</v>
       </c>
       <c r="G352">
-        <v>1426.67</v>
+        <v>1457.98</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
@@ -15317,10 +14954,10 @@
         <v>-2</v>
       </c>
       <c r="F353">
-        <v>1667.48</v>
+        <v>1754.92</v>
       </c>
       <c r="G353">
-        <v>1631.46</v>
+        <v>1591.44</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -15343,7 +14980,7 @@
         <v>1616.26</v>
       </c>
       <c r="G354">
-        <v>1569.75</v>
+        <v>1490.02</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -15365,9 +15002,6 @@
       <c r="F355">
         <v>2273.1</v>
       </c>
-      <c r="G355">
-        <v>2273.1</v>
-      </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
@@ -15389,7 +15023,7 @@
         <v>1537.23</v>
       </c>
       <c r="G356">
-        <v>1480.8</v>
+        <v>1569.24</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -15411,9 +15045,6 @@
       <c r="F357">
         <v>1766.96</v>
       </c>
-      <c r="G357">
-        <v>1766.96</v>
-      </c>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
@@ -15435,7 +15066,7 @@
         <v>1562.32</v>
       </c>
       <c r="G358">
-        <v>1511.73</v>
+        <v>1499.85</v>
       </c>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
@@ -15455,10 +15086,10 @@
         <v>-6</v>
       </c>
       <c r="F359">
-        <v>1231.03</v>
+        <v>1538.78</v>
       </c>
       <c r="G359">
-        <v>1287.18</v>
+        <v>1616.26</v>
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
@@ -15478,10 +15109,10 @@
         <v>19</v>
       </c>
       <c r="F360">
-        <v>1306.31</v>
+        <v>1396.4</v>
       </c>
       <c r="G360">
-        <v>1359.32</v>
+        <v>1450.2</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -15501,10 +15132,10 @@
         <v>-10</v>
       </c>
       <c r="F361">
-        <v>1164.8800000000001</v>
+        <v>1528.7</v>
       </c>
       <c r="G361">
-        <v>1169.07</v>
+        <v>1445.61</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -15524,10 +15155,10 @@
         <v>-9</v>
       </c>
       <c r="F362">
-        <v>1409.12</v>
+        <v>1511.57</v>
       </c>
       <c r="G362">
-        <v>1368.98</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
@@ -15550,7 +15181,7 @@
         <v>1424.64</v>
       </c>
       <c r="G363">
-        <v>1398.28</v>
+        <v>1366.66</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -15572,9 +15203,6 @@
       <c r="F364">
         <v>1424.64</v>
       </c>
-      <c r="G364">
-        <v>1424.64</v>
-      </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
@@ -15596,7 +15224,7 @@
         <v>1746.47</v>
       </c>
       <c r="G365">
-        <v>1510.07</v>
+        <v>1391.87</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
@@ -15616,10 +15244,10 @@
         <v>3</v>
       </c>
       <c r="F366">
-        <v>1555.93</v>
+        <v>1615.54</v>
       </c>
       <c r="G366">
-        <v>1467.86</v>
+        <v>1388.59</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -15642,7 +15270,7 @@
         <v>1416.73</v>
       </c>
       <c r="G367">
-        <v>1432.37</v>
+        <v>1443.75</v>
       </c>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
@@ -15665,7 +15293,7 @@
         <v>1786.12</v>
       </c>
       <c r="G368">
-        <v>1665.63</v>
+        <v>1424.64</v>
       </c>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
@@ -15688,7 +15316,7 @@
         <v>1472.83</v>
       </c>
       <c r="G369">
-        <v>1335.98</v>
+        <v>1236.45</v>
       </c>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
@@ -15711,7 +15339,7 @@
         <v>1430.11</v>
       </c>
       <c r="G370">
-        <v>1409.94</v>
+        <v>1389.76</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
@@ -15734,7 +15362,7 @@
         <v>1449.27</v>
       </c>
       <c r="G371">
-        <v>1355.44</v>
+        <v>1401.43</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -15757,7 +15385,7 @@
         <v>2706.79</v>
       </c>
       <c r="G372">
-        <v>2250.86</v>
+        <v>1693.6</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -15777,10 +15405,10 @@
         <v>2</v>
       </c>
       <c r="F373">
-        <v>1193.5</v>
+        <v>1457.28</v>
       </c>
       <c r="G373">
-        <v>1431</v>
+        <v>1631.96</v>
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
@@ -15820,10 +15448,10 @@
         <v>7</v>
       </c>
       <c r="F375">
-        <v>1260.3</v>
+        <v>1417.84</v>
       </c>
       <c r="G375">
-        <v>1405.18</v>
+        <v>1509.5</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -15846,7 +15474,7 @@
         <v>1424.64</v>
       </c>
       <c r="G376">
-        <v>1154.25</v>
+        <v>1413.87</v>
       </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
@@ -15868,9 +15496,6 @@
       <c r="F377">
         <v>2040.69</v>
       </c>
-      <c r="G377">
-        <v>2040.69</v>
-      </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
@@ -15892,7 +15517,7 @@
         <v>2550</v>
       </c>
       <c r="G378">
-        <v>2140</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
@@ -15915,7 +15540,7 @@
         <v>1761.61</v>
       </c>
       <c r="G379">
-        <v>1762.92</v>
+        <v>1764.1</v>
       </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
@@ -15938,7 +15563,7 @@
         <v>2030.56</v>
       </c>
       <c r="G380">
-        <v>2031.14</v>
+        <v>2031.58</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -15981,7 +15606,7 @@
         <v>1636.1</v>
       </c>
       <c r="G382">
-        <v>1440.97</v>
+        <v>1354.88</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -16001,10 +15626,10 @@
         <v>9</v>
       </c>
       <c r="F383">
-        <v>1487.64</v>
+        <v>1538.72</v>
       </c>
       <c r="G383">
-        <v>1444.65</v>
+        <v>1411.58</v>
       </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
@@ -16027,7 +15652,7 @@
         <v>1340</v>
       </c>
       <c r="G384">
-        <v>1489.25</v>
+        <v>1563.87</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -16050,7 +15675,7 @@
         <v>1454.46</v>
       </c>
       <c r="G385">
-        <v>1446.86</v>
+        <v>1438.71</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -16070,10 +15695,10 @@
         <v>46</v>
       </c>
       <c r="F386">
-        <v>1372.66</v>
+        <v>1415.24</v>
       </c>
       <c r="G386">
-        <v>1378.26</v>
+        <v>1417.42</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -16093,10 +15718,10 @@
         <v>0</v>
       </c>
       <c r="F387">
-        <v>1489.51</v>
+        <v>1520.54</v>
       </c>
       <c r="G387">
-        <v>1468.47</v>
+        <v>1541.68</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
@@ -16119,7 +15744,7 @@
         <v>1384.32</v>
       </c>
       <c r="G388">
-        <v>1397.76</v>
+        <v>1404.48</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
@@ -16142,7 +15767,7 @@
         <v>1664.28</v>
       </c>
       <c r="G389">
-        <v>1033.26</v>
+        <v>1316.78</v>
       </c>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
@@ -16188,7 +15813,7 @@
         <v>1389.73</v>
       </c>
       <c r="G391">
-        <v>1417.55</v>
+        <v>1453.83</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -16228,10 +15853,10 @@
         <v>11</v>
       </c>
       <c r="F393">
-        <v>1226.96</v>
+        <v>1472.36</v>
       </c>
       <c r="G393">
-        <v>1271.1199999999999</v>
+        <v>1423.4</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -16254,7 +15879,7 @@
         <v>1365</v>
       </c>
       <c r="G394">
-        <v>1338</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -16277,7 +15902,7 @@
         <v>1415.84</v>
       </c>
       <c r="G395">
-        <v>1384.51</v>
+        <v>1358.14</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
@@ -16300,7 +15925,7 @@
         <v>1057.55</v>
       </c>
       <c r="G396">
-        <v>1317.99</v>
+        <v>1361.4</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -16319,12 +15944,6 @@
       <c r="E397">
         <v>-1</v>
       </c>
-      <c r="F397">
-        <v>6.11</v>
-      </c>
-      <c r="G397">
-        <v>6.11</v>
-      </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
@@ -16345,9 +15964,6 @@
       <c r="F398">
         <v>750.83</v>
       </c>
-      <c r="G398">
-        <v>750.83</v>
-      </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
@@ -16366,10 +15982,10 @@
         <v>34</v>
       </c>
       <c r="F399">
-        <v>1414.17</v>
+        <v>1453.28</v>
       </c>
       <c r="G399">
-        <v>1414.17</v>
+        <v>1414.18</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
@@ -16389,10 +16005,10 @@
         <v>14</v>
       </c>
       <c r="F400">
-        <v>1349.43</v>
+        <v>1428.31</v>
       </c>
       <c r="G400">
-        <v>1274.73</v>
+        <v>1314.25</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
@@ -16415,7 +16031,7 @@
         <v>1320</v>
       </c>
       <c r="G401">
-        <v>1661.5</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
@@ -16437,9 +16053,6 @@
       <c r="F402">
         <v>1982.16</v>
       </c>
-      <c r="G402">
-        <v>1982.16</v>
-      </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
@@ -16461,7 +16074,7 @@
         <v>1372.88</v>
       </c>
       <c r="G403">
-        <v>1332.41</v>
+        <v>1392.76</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
@@ -16484,7 +16097,7 @@
         <v>1421.03</v>
       </c>
       <c r="G404">
-        <v>1612.21</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
@@ -16507,7 +16120,7 @@
         <v>1359.81</v>
       </c>
       <c r="G405">
-        <v>1430.4</v>
+        <v>1492.16</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -16530,7 +16143,7 @@
         <v>2069.4299999999998</v>
       </c>
       <c r="G406">
-        <v>2042.93</v>
+        <v>2020.61</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
@@ -16553,7 +16166,7 @@
         <v>1845.5</v>
       </c>
       <c r="G407">
-        <v>1602.25</v>
+        <v>1467.11</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
@@ -16576,7 +16189,7 @@
         <v>2037.9</v>
       </c>
       <c r="G408">
-        <v>1968.48</v>
+        <v>1888.37</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
@@ -16599,7 +16212,7 @@
         <v>1989.13</v>
       </c>
       <c r="G409">
-        <v>1953.96</v>
+        <v>1919.48</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
@@ -16622,7 +16235,7 @@
         <v>1774.94</v>
       </c>
       <c r="G410">
-        <v>1893.42</v>
+        <v>1998.74</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
@@ -16664,9 +16277,6 @@
       <c r="F412">
         <v>1320</v>
       </c>
-      <c r="G412">
-        <v>1320</v>
-      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
@@ -16688,7 +16298,7 @@
         <v>3110.22</v>
       </c>
       <c r="G413">
-        <v>2217.44</v>
+        <v>1919.85</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
@@ -16711,7 +16321,7 @@
         <v>1372.67</v>
       </c>
       <c r="G414">
-        <v>1194.5</v>
+        <v>660</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -16751,10 +16361,10 @@
         <v>7</v>
       </c>
       <c r="F416">
-        <v>1023.99</v>
+        <v>1392.63</v>
       </c>
       <c r="G416">
-        <v>973.16</v>
+        <v>1413.75</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
@@ -16777,7 +16387,7 @@
         <v>2730</v>
       </c>
       <c r="G417">
-        <v>1790</v>
+        <v>1626.52</v>
       </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
@@ -16800,7 +16410,7 @@
         <v>1806.54</v>
       </c>
       <c r="G418">
-        <v>1678.13</v>
+        <v>1485.51</v>
       </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
@@ -16823,7 +16433,7 @@
         <v>1481.5</v>
       </c>
       <c r="G419">
-        <v>1441.75</v>
+        <v>1424.09</v>
       </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
@@ -16846,7 +16456,7 @@
         <v>1720.83</v>
       </c>
       <c r="G420">
-        <v>1603.72</v>
+        <v>1428.05</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -16889,7 +16499,7 @@
         <v>2136.4699999999998</v>
       </c>
       <c r="G422">
-        <v>1978.52</v>
+        <v>1820.56</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -16912,7 +16522,7 @@
         <v>679.35</v>
       </c>
       <c r="G423">
-        <v>746.93</v>
+        <v>814.52</v>
       </c>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
@@ -16934,9 +16544,6 @@
       <c r="F424">
         <v>1399.2</v>
       </c>
-      <c r="G424">
-        <v>1399.2</v>
-      </c>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
@@ -16978,7 +16585,7 @@
         <v>1803.91</v>
       </c>
       <c r="G426">
-        <v>1734.78</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
@@ -17001,7 +16608,7 @@
         <v>1396.93</v>
       </c>
       <c r="G427">
-        <v>1386.89</v>
+        <v>1374.69</v>
       </c>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
@@ -17024,7 +16631,7 @@
         <v>1440.8</v>
       </c>
       <c r="G428">
-        <v>1399.13</v>
+        <v>1423.2</v>
       </c>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
@@ -17047,7 +16654,7 @@
         <v>1224.17</v>
       </c>
       <c r="G429">
-        <v>1305.21</v>
+        <v>1386.25</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -17067,10 +16674,10 @@
         <v>-8</v>
       </c>
       <c r="F430">
-        <v>1291.0899999999999</v>
+        <v>1360.3</v>
       </c>
       <c r="G430">
-        <v>1311.02</v>
+        <v>1345.45</v>
       </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
@@ -17112,9 +16719,6 @@
       <c r="F432">
         <v>1360</v>
       </c>
-      <c r="G432">
-        <v>1360</v>
-      </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
@@ -17135,9 +16739,6 @@
       <c r="F433">
         <v>1293.5</v>
       </c>
-      <c r="G433">
-        <v>1293.5</v>
-      </c>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
@@ -17156,10 +16757,10 @@
         <v>-15</v>
       </c>
       <c r="F434">
-        <v>1332.51</v>
+        <v>1400.09</v>
       </c>
       <c r="G434">
-        <v>1335.76</v>
+        <v>1367.68</v>
       </c>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
@@ -17179,10 +16780,10 @@
         <v>63</v>
       </c>
       <c r="F435">
-        <v>1352.22</v>
+        <v>1397.59</v>
       </c>
       <c r="G435">
-        <v>1374.89</v>
+        <v>1406.45</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -17205,7 +16806,7 @@
         <v>1348.57</v>
       </c>
       <c r="G436">
-        <v>1245.32</v>
+        <v>1348.6</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
@@ -17228,7 +16829,7 @@
         <v>1411.83</v>
       </c>
       <c r="G437">
-        <v>1416.26</v>
+        <v>1419.44</v>
       </c>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
@@ -17250,9 +16851,6 @@
       <c r="F438">
         <v>1270</v>
       </c>
-      <c r="G438">
-        <v>1270</v>
-      </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
@@ -17274,7 +16872,7 @@
         <v>1479.72</v>
       </c>
       <c r="G439">
-        <v>1509.53</v>
+        <v>1529.85</v>
       </c>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
@@ -17294,10 +16892,10 @@
         <v>-3</v>
       </c>
       <c r="F440">
-        <v>1273.8499999999999</v>
+        <v>1663.88</v>
       </c>
       <c r="G440">
-        <v>1359.34</v>
+        <v>1463.14</v>
       </c>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
@@ -17340,7 +16938,7 @@
         <v>1355.91</v>
       </c>
       <c r="G442">
-        <v>1354.92</v>
+        <v>1354.2</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
@@ -17382,9 +16980,6 @@
       <c r="F444">
         <v>1396.88</v>
       </c>
-      <c r="G444">
-        <v>1396.88</v>
-      </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
@@ -17406,7 +17001,7 @@
         <v>1442.42</v>
       </c>
       <c r="G445">
-        <v>1414.94</v>
+        <v>1332.5</v>
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
@@ -17429,7 +17024,7 @@
         <v>1185.83</v>
       </c>
       <c r="G446">
-        <v>1187.25</v>
+        <v>1188.67</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
@@ -17452,7 +17047,7 @@
         <v>2341.2600000000002</v>
       </c>
       <c r="G447">
-        <v>2041.76</v>
+        <v>1292.99</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -17472,10 +17067,10 @@
         <v>1</v>
       </c>
       <c r="F448">
-        <v>1704.54</v>
+        <v>2130.6799999999998</v>
       </c>
       <c r="G448">
-        <v>2297.5</v>
+        <v>3349.96</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -17498,7 +17093,7 @@
         <v>2042</v>
       </c>
       <c r="G449">
-        <v>2505.66</v>
+        <v>2660.21</v>
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
@@ -17518,10 +17113,10 @@
         <v>66</v>
       </c>
       <c r="F450">
-        <v>1585.04</v>
+        <v>1601.9</v>
       </c>
       <c r="G450">
-        <v>1460.51</v>
+        <v>1498.01</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -17543,9 +17138,6 @@
       <c r="F451">
         <v>4161.1899999999996</v>
       </c>
-      <c r="G451">
-        <v>4161.1899999999996</v>
-      </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
@@ -17567,7 +17159,7 @@
         <v>1500.58</v>
       </c>
       <c r="G452">
-        <v>1509.66</v>
+        <v>1518.73</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
@@ -17589,9 +17181,6 @@
       <c r="F453">
         <v>1348.2</v>
       </c>
-      <c r="G453">
-        <v>1348.2</v>
-      </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
@@ -17613,7 +17202,7 @@
         <v>1526</v>
       </c>
       <c r="G454">
-        <v>1586.36</v>
+        <v>1596.43</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -17636,7 +17225,7 @@
         <v>8991</v>
       </c>
       <c r="G455">
-        <v>7947.3</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
@@ -17658,9 +17247,6 @@
       <c r="F456">
         <v>2905.81</v>
       </c>
-      <c r="G456">
-        <v>2905.81</v>
-      </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
@@ -17682,7 +17268,7 @@
         <v>1423</v>
       </c>
       <c r="G457">
-        <v>2263.4699999999998</v>
+        <v>2383.54</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
@@ -17702,10 +17288,10 @@
         <v>-10</v>
       </c>
       <c r="F458">
-        <v>1387.66</v>
+        <v>1849.31</v>
       </c>
       <c r="G458">
-        <v>1349.44</v>
+        <v>1247.5</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -17728,7 +17314,7 @@
         <v>1414.66</v>
       </c>
       <c r="G459">
-        <v>1383.1</v>
+        <v>1376.69</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
@@ -17748,10 +17334,10 @@
         <v>3</v>
       </c>
       <c r="F460">
-        <v>882</v>
+        <v>1320</v>
       </c>
       <c r="G460">
-        <v>1490.1</v>
+        <v>1794.15</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
@@ -17794,7 +17380,7 @@
         <v>1415.4</v>
       </c>
       <c r="G462">
-        <v>1539.1</v>
+        <v>1580.34</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
@@ -17817,7 +17403,7 @@
         <v>6298.6</v>
       </c>
       <c r="G463">
-        <v>4119.47</v>
+        <v>3546.01</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -17860,7 +17446,7 @@
         <v>7306.8</v>
       </c>
       <c r="G465">
-        <v>5880.35</v>
+        <v>4453.91</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -17883,7 +17469,7 @@
         <v>1328.18</v>
       </c>
       <c r="G466">
-        <v>1325.45</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
@@ -17906,7 +17492,7 @@
         <v>1766.72</v>
       </c>
       <c r="G467">
-        <v>1543.36</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
@@ -17929,7 +17515,7 @@
         <v>1328</v>
       </c>
       <c r="G468">
-        <v>1327.14</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
@@ -17951,9 +17537,6 @@
       <c r="F469">
         <v>24824.7</v>
       </c>
-      <c r="G469">
-        <v>24824.7</v>
-      </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
@@ -17972,10 +17555,10 @@
         <v>-3</v>
       </c>
       <c r="F470">
-        <v>2316.17</v>
+        <v>2736.74</v>
       </c>
       <c r="G470">
-        <v>2621.69</v>
+        <v>3018.88</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
@@ -17998,7 +17581,7 @@
         <v>1533.33</v>
       </c>
       <c r="G471">
-        <v>1512.26</v>
+        <v>1494.57</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
@@ -18021,7 +17604,7 @@
         <v>1410</v>
       </c>
       <c r="G472">
-        <v>1382.22</v>
+        <v>1374.29</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -18044,7 +17627,7 @@
         <v>1372.5</v>
       </c>
       <c r="G473">
-        <v>1360.81</v>
+        <v>1337.42</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -18067,7 +17650,7 @@
         <v>1538.9</v>
       </c>
       <c r="G474">
-        <v>1486.68</v>
+        <v>1476.24</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
@@ -18090,7 +17673,7 @@
         <v>2374.0500000000002</v>
       </c>
       <c r="G475">
-        <v>1906.09</v>
+        <v>1555.13</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -18113,7 +17696,7 @@
         <v>1418.27</v>
       </c>
       <c r="G476">
-        <v>1514.34</v>
+        <v>1555.51</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
@@ -18136,7 +17719,7 @@
         <v>1465.22</v>
       </c>
       <c r="G477">
-        <v>2010.14</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -18159,7 +17742,7 @@
         <v>1669.37</v>
       </c>
       <c r="G478">
-        <v>1618.16</v>
+        <v>1588.03</v>
       </c>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
@@ -18182,7 +17765,7 @@
         <v>1430.43</v>
       </c>
       <c r="G479">
-        <v>1616.52</v>
+        <v>1833.62</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
@@ -18205,7 +17788,7 @@
         <v>2571.0300000000002</v>
       </c>
       <c r="G480">
-        <v>1841.29</v>
+        <v>1630.63</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -18228,7 +17811,7 @@
         <v>1598.13</v>
       </c>
       <c r="G481">
-        <v>1498.19</v>
+        <v>1448.22</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -18251,7 +17834,7 @@
         <v>1561.13</v>
       </c>
       <c r="G482">
-        <v>1484.67</v>
+        <v>1420.95</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
@@ -18274,7 +17857,7 @@
         <v>1710.75</v>
       </c>
       <c r="G483">
-        <v>1554.7</v>
+        <v>1458.91</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -18297,7 +17880,7 @@
         <v>2552.1999999999998</v>
       </c>
       <c r="G484">
-        <v>2212.0300000000002</v>
+        <v>2215.69</v>
       </c>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
@@ -18320,7 +17903,7 @@
         <v>1622.91</v>
       </c>
       <c r="G485">
-        <v>1499.53</v>
+        <v>1450.18</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
@@ -18340,10 +17923,10 @@
         <v>-5</v>
       </c>
       <c r="F486">
-        <v>1703.95</v>
+        <v>1758.74</v>
       </c>
       <c r="G486">
-        <v>1673.6</v>
+        <v>1659.74</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
@@ -18366,7 +17949,7 @@
         <v>1320</v>
       </c>
       <c r="G487">
-        <v>248.57</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -18409,7 +17992,7 @@
         <v>1792.24</v>
       </c>
       <c r="G489">
-        <v>1826.09</v>
+        <v>1848.65</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -18432,7 +18015,7 @@
         <v>7910.97</v>
       </c>
       <c r="G490">
-        <v>6455.69</v>
+        <v>2089.8200000000002</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -18455,7 +18038,7 @@
         <v>1900.97</v>
       </c>
       <c r="G491">
-        <v>1804.58</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -18477,9 +18060,6 @@
       <c r="F492">
         <v>1375.22</v>
       </c>
-      <c r="G492">
-        <v>1375.22</v>
-      </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
@@ -18501,7 +18081,7 @@
         <v>1592.87</v>
       </c>
       <c r="G493">
-        <v>1619.49</v>
+        <v>1684.44</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -18524,7 +18104,7 @@
         <v>1780.96</v>
       </c>
       <c r="G494">
-        <v>1839.6</v>
+        <v>1942.22</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
@@ -18547,7 +18127,7 @@
         <v>1406.16</v>
       </c>
       <c r="G495">
-        <v>1363.08</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
@@ -18610,7 +18190,7 @@
         <v>1709.56</v>
       </c>
       <c r="G498">
-        <v>1646.54</v>
+        <v>1541.51</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
@@ -18633,7 +18213,7 @@
         <v>1561.33</v>
       </c>
       <c r="G499">
-        <v>1495.88</v>
+        <v>1430.43</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -18656,7 +18236,7 @@
         <v>1339.72</v>
       </c>
       <c r="G500">
-        <v>1331.78</v>
+        <v>1326.48</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
@@ -18679,7 +18259,7 @@
         <v>1507.05</v>
       </c>
       <c r="G501">
-        <v>1547.74</v>
+        <v>1649.47</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
@@ -18702,7 +18282,7 @@
         <v>2160.96</v>
       </c>
       <c r="G502">
-        <v>2093.65</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -18724,9 +18304,6 @@
       <c r="F503">
         <v>1363.32</v>
       </c>
-      <c r="G503">
-        <v>1363.32</v>
-      </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
@@ -18747,9 +18324,6 @@
       <c r="F504">
         <v>1424.64</v>
       </c>
-      <c r="G504">
-        <v>1424.64</v>
-      </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
@@ -18771,7 +18345,7 @@
         <v>1320</v>
       </c>
       <c r="G505">
-        <v>1377.49</v>
+        <v>1434.99</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
@@ -18794,7 +18368,7 @@
         <v>1660</v>
       </c>
       <c r="G506">
-        <v>2168.89</v>
+        <v>2314.29</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
@@ -18817,7 +18391,7 @@
         <v>1855.08</v>
       </c>
       <c r="G507">
-        <v>1997.7</v>
+        <v>2061.09</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
@@ -18860,7 +18434,7 @@
         <v>1935</v>
       </c>
       <c r="G509">
-        <v>1736.72</v>
+        <v>1538.43</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
@@ -18883,7 +18457,7 @@
         <v>1331.53</v>
       </c>
       <c r="G510">
-        <v>1394.83</v>
+        <v>1422.96</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -18905,9 +18479,6 @@
       <c r="F511">
         <v>1320</v>
       </c>
-      <c r="G511">
-        <v>1320</v>
-      </c>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
@@ -18926,10 +18497,10 @@
         <v>87</v>
       </c>
       <c r="F512">
-        <v>1725.43</v>
+        <v>1808.21</v>
       </c>
       <c r="G512">
-        <v>1735.33</v>
+        <v>1923.86</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -18949,10 +18520,10 @@
         <v>37</v>
       </c>
       <c r="F513">
-        <v>1371.89</v>
+        <v>1416.14</v>
       </c>
       <c r="G513">
-        <v>1411.37</v>
+        <v>1429.68</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
@@ -18975,7 +18546,7 @@
         <v>1580.85</v>
       </c>
       <c r="G514">
-        <v>1548.11</v>
+        <v>1507.2</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
@@ -18998,7 +18569,7 @@
         <v>1388.65</v>
       </c>
       <c r="G515">
-        <v>1273.6199999999999</v>
+        <v>1331.48</v>
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
@@ -19041,10 +18612,10 @@
         <v>45</v>
       </c>
       <c r="F517">
-        <v>1573.52</v>
+        <v>1627.08</v>
       </c>
       <c r="G517">
-        <v>1375.39</v>
+        <v>1594.28</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
@@ -19066,9 +18637,6 @@
       <c r="F518">
         <v>2003.78</v>
       </c>
-      <c r="G518">
-        <v>2003.78</v>
-      </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
@@ -19090,7 +18658,7 @@
         <v>1489.11</v>
       </c>
       <c r="G519">
-        <v>1557.58</v>
+        <v>1654.58</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -19113,7 +18681,7 @@
         <v>1349.23</v>
       </c>
       <c r="G520">
-        <v>1351.79</v>
+        <v>1353.5</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
@@ -19136,7 +18704,7 @@
         <v>1571.16</v>
       </c>
       <c r="G521">
-        <v>1566.59</v>
+        <v>1560.51</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -19156,10 +18724,10 @@
         <v>129</v>
       </c>
       <c r="F522">
-        <v>1680.56</v>
+        <v>1758.86</v>
       </c>
       <c r="G522">
-        <v>1605.73</v>
+        <v>1579.32</v>
       </c>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
@@ -19182,7 +18750,7 @@
         <v>1995.17</v>
       </c>
       <c r="G523">
-        <v>1779.43</v>
+        <v>1471.23</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
@@ -19205,7 +18773,7 @@
         <v>1482.61</v>
       </c>
       <c r="G524">
-        <v>1386.32</v>
+        <v>1376.69</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -19228,7 +18796,7 @@
         <v>1494.97</v>
       </c>
       <c r="G525">
-        <v>1424.97</v>
+        <v>1354.97</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
@@ -19251,7 +18819,7 @@
         <v>1937.15</v>
       </c>
       <c r="G526">
-        <v>1675.32</v>
+        <v>1500.87</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -19271,10 +18839,10 @@
         <v>-1</v>
       </c>
       <c r="F527">
-        <v>882.17</v>
+        <v>1320</v>
       </c>
       <c r="G527">
-        <v>1057.3</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -19297,7 +18865,7 @@
         <v>1370.49</v>
       </c>
       <c r="G528">
-        <v>1335.63</v>
+        <v>1316.61</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
@@ -19320,7 +18888,7 @@
         <v>1450.45</v>
       </c>
       <c r="G529">
-        <v>1567.89</v>
+        <v>1624.26</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
@@ -19343,7 +18911,7 @@
         <v>1340</v>
       </c>
       <c r="G530">
-        <v>1354.29</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -19366,7 +18934,7 @@
         <v>1357.05</v>
       </c>
       <c r="G531">
-        <v>1407.97</v>
+        <v>1445.41</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
@@ -19406,10 +18974,10 @@
         <v>-14</v>
       </c>
       <c r="F533">
-        <v>1273.1500000000001</v>
+        <v>1493.5</v>
       </c>
       <c r="G533">
-        <v>1301.3800000000001</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -19432,7 +19000,7 @@
         <v>1405.4</v>
       </c>
       <c r="G534">
-        <v>1401.96</v>
+        <v>1397.04</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
@@ -19455,7 +19023,7 @@
         <v>1372.93</v>
       </c>
       <c r="G535">
-        <v>1364.11</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
@@ -19478,7 +19046,7 @@
         <v>1492.11</v>
       </c>
       <c r="G536">
-        <v>1387.53</v>
+        <v>1368.18</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -19498,10 +19066,10 @@
         <v>0</v>
       </c>
       <c r="F537">
-        <v>3689.24</v>
+        <v>6148.73</v>
       </c>
       <c r="G537">
-        <v>2980</v>
+        <v>2838.44</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -19524,7 +19092,7 @@
         <v>1456.02</v>
       </c>
       <c r="G538">
-        <v>1353.24</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
@@ -19544,10 +19112,10 @@
         <v>-19</v>
       </c>
       <c r="F539">
-        <v>1339.59</v>
+        <v>1656.82</v>
       </c>
       <c r="G539">
-        <v>1324.72</v>
+        <v>1377.01</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
@@ -19567,10 +19135,10 @@
         <v>9</v>
       </c>
       <c r="F540">
-        <v>1252.22</v>
+        <v>1393.79</v>
       </c>
       <c r="G540">
-        <v>1097.45</v>
+        <v>1370.96</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -19590,10 +19158,10 @@
         <v>4</v>
       </c>
       <c r="F541">
-        <v>1656.25</v>
+        <v>1721.59</v>
       </c>
       <c r="G541">
-        <v>1408.98</v>
+        <v>1430.42</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
@@ -19616,7 +19184,7 @@
         <v>5113.33</v>
       </c>
       <c r="G542">
-        <v>2275.48</v>
+        <v>1831.31</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -19636,10 +19204,10 @@
         <v>9</v>
       </c>
       <c r="F543">
-        <v>2963.38</v>
+        <v>3478.25</v>
       </c>
       <c r="G543">
-        <v>2801.25</v>
+        <v>3389.1</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -19662,7 +19230,7 @@
         <v>1354.64</v>
       </c>
       <c r="G544">
-        <v>1337.32</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
@@ -19685,7 +19253,7 @@
         <v>1362.43</v>
       </c>
       <c r="G545">
-        <v>998.83</v>
+        <v>1387.79</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
@@ -19707,9 +19275,6 @@
       <c r="F546">
         <v>1320</v>
       </c>
-      <c r="G546">
-        <v>1320</v>
-      </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
@@ -19731,7 +19296,7 @@
         <v>1441.88</v>
       </c>
       <c r="G547">
-        <v>1401.25</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
@@ -19753,9 +19318,6 @@
       <c r="F548">
         <v>1339.5</v>
       </c>
-      <c r="G548">
-        <v>1339.5</v>
-      </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
@@ -19777,7 +19339,7 @@
         <v>1411.46</v>
       </c>
       <c r="G549">
-        <v>1309.17</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
@@ -19800,7 +19362,7 @@
         <v>1367.64</v>
       </c>
       <c r="G550">
-        <v>1316.72</v>
+        <v>1342.24</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
@@ -19823,7 +19385,7 @@
         <v>1360.05</v>
       </c>
       <c r="G551">
-        <v>1340.03</v>
+        <v>1336.02</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -19846,7 +19408,7 @@
         <v>1264.69</v>
       </c>
       <c r="G552">
-        <v>1272.58</v>
+        <v>1372.53</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
@@ -19869,7 +19431,7 @@
         <v>1320</v>
       </c>
       <c r="G553">
-        <v>1670.01</v>
+        <v>1786.68</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -19889,10 +19451,10 @@
         <v>-8</v>
       </c>
       <c r="F554">
-        <v>1492.17</v>
+        <v>1843.05</v>
       </c>
       <c r="G554">
-        <v>1649.92</v>
+        <v>2248.29</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
@@ -19912,10 +19474,10 @@
         <v>38</v>
       </c>
       <c r="F555">
-        <v>1858.62</v>
+        <v>1889.5</v>
       </c>
       <c r="G555">
-        <v>1764.01</v>
+        <v>1723.12</v>
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
@@ -19935,10 +19497,10 @@
         <v>3</v>
       </c>
       <c r="F556">
-        <v>1835.79</v>
+        <v>1988.27</v>
       </c>
       <c r="G556">
-        <v>1848.11</v>
+        <v>1952.23</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
@@ -19961,7 +19523,7 @@
         <v>1370.28</v>
       </c>
       <c r="G557">
-        <v>1358.23</v>
+        <v>1346.18</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
@@ -19984,7 +19546,7 @@
         <v>1426.85</v>
       </c>
       <c r="G558">
-        <v>1358.37</v>
+        <v>1311.81</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
@@ -20004,10 +19566,10 @@
         <v>29</v>
       </c>
       <c r="F559">
-        <v>1996.55</v>
+        <v>2079.4899999999998</v>
       </c>
       <c r="G559">
-        <v>1724.23</v>
+        <v>1598.16</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
@@ -20030,7 +19592,7 @@
         <v>1331.7</v>
       </c>
       <c r="G560">
-        <v>1354.35</v>
+        <v>1395.02</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
@@ -20093,7 +19655,7 @@
         <v>1345.23</v>
       </c>
       <c r="G563">
-        <v>1573.49</v>
+        <v>1649.58</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
@@ -20113,10 +19675,10 @@
         <v>-1</v>
       </c>
       <c r="F564">
-        <v>663.31</v>
+        <v>1320</v>
       </c>
       <c r="G564">
-        <v>1142.21</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
@@ -20139,7 +19701,7 @@
         <v>1495.14</v>
       </c>
       <c r="G565">
-        <v>54240.28</v>
+        <v>1468.87</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -20162,7 +19724,7 @@
         <v>1343.73</v>
       </c>
       <c r="G566">
-        <v>1463.69</v>
+        <v>1673.63</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -20185,7 +19747,7 @@
         <v>1495.83</v>
       </c>
       <c r="G567">
-        <v>1392.63</v>
+        <v>1330.71</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -20247,9 +19809,6 @@
       <c r="F570">
         <v>2222.36</v>
       </c>
-      <c r="G570">
-        <v>2222.36</v>
-      </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
@@ -20270,9 +19829,6 @@
       <c r="F571">
         <v>1373.78</v>
       </c>
-      <c r="G571">
-        <v>1373.78</v>
-      </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
@@ -20291,10 +19847,7 @@
         <v>-2</v>
       </c>
       <c r="F572">
-        <v>886.91</v>
-      </c>
-      <c r="G572">
-        <v>886.91</v>
+        <v>1773.82</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
@@ -20314,10 +19867,10 @@
         <v>5</v>
       </c>
       <c r="F573">
-        <v>1396.28</v>
+        <v>1649.06</v>
       </c>
       <c r="G573">
-        <v>1507.59</v>
+        <v>1785.73</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -20340,7 +19893,7 @@
         <v>1501.01</v>
       </c>
       <c r="G574">
-        <v>1497.39</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
@@ -20360,10 +19913,10 @@
         <v>-1</v>
       </c>
       <c r="F575">
-        <v>1374.93</v>
+        <v>1648.7</v>
       </c>
       <c r="G575">
-        <v>1383.4</v>
+        <v>1393.56</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
@@ -20386,7 +19939,7 @@
         <v>1911.96</v>
       </c>
       <c r="G576">
-        <v>1743.89</v>
+        <v>1621.66</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
@@ -20429,7 +19982,7 @@
         <v>1320</v>
       </c>
       <c r="G578">
-        <v>1328.41</v>
+        <v>1332.62</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
@@ -20452,7 +20005,7 @@
         <v>1462.88</v>
       </c>
       <c r="G579">
-        <v>1791.21</v>
+        <v>1955.38</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
@@ -20472,10 +20025,10 @@
         <v>24</v>
       </c>
       <c r="F580">
-        <v>2983.86</v>
+        <v>3315.4</v>
       </c>
       <c r="G580">
-        <v>2377.96</v>
+        <v>2199.75</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
@@ -20495,10 +20048,10 @@
         <v>0</v>
       </c>
       <c r="F581">
-        <v>566.66999999999996</v>
+        <v>1700</v>
       </c>
       <c r="G581">
-        <v>1000</v>
+        <v>1433.33</v>
       </c>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
@@ -20520,9 +20073,6 @@
       <c r="F582">
         <v>1615.5</v>
       </c>
-      <c r="G582">
-        <v>1615.5</v>
-      </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
@@ -20544,7 +20094,7 @@
         <v>1302</v>
       </c>
       <c r="G583">
-        <v>1323.62</v>
+        <v>1345.23</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -20566,9 +20116,6 @@
       <c r="F584">
         <v>1320</v>
       </c>
-      <c r="G584">
-        <v>1320</v>
-      </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
@@ -20589,9 +20136,6 @@
       <c r="F585">
         <v>1455.2</v>
       </c>
-      <c r="G585">
-        <v>1455.2</v>
-      </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
@@ -20612,9 +20156,6 @@
       <c r="F586">
         <v>1900</v>
       </c>
-      <c r="G586">
-        <v>1900</v>
-      </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
@@ -20655,9 +20196,6 @@
       <c r="F588">
         <v>1360</v>
       </c>
-      <c r="G588">
-        <v>1360</v>
-      </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
@@ -20679,7 +20217,7 @@
         <v>1360</v>
       </c>
       <c r="G589">
-        <v>1363.33</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
@@ -20702,7 +20240,7 @@
         <v>1050.93</v>
       </c>
       <c r="G590">
-        <v>1342.59</v>
+        <v>2055.56</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
@@ -20745,7 +20283,7 @@
         <v>1386</v>
       </c>
       <c r="G592">
-        <v>1425.64</v>
+        <v>1445.46</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
@@ -20767,9 +20305,6 @@
       <c r="F593">
         <v>1320</v>
       </c>
-      <c r="G593">
-        <v>1320</v>
-      </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
@@ -20811,7 +20346,7 @@
         <v>1356.16</v>
       </c>
       <c r="G595">
-        <v>1469.46</v>
+        <v>1514.78</v>
       </c>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
@@ -20834,7 +20369,7 @@
         <v>1338.55</v>
       </c>
       <c r="G596">
-        <v>1356.71</v>
+        <v>1506.54</v>
       </c>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
@@ -20854,10 +20389,10 @@
         <v>17</v>
       </c>
       <c r="F597">
-        <v>1150.44</v>
+        <v>1475.5</v>
       </c>
       <c r="G597">
-        <v>1203.3499999999999</v>
+        <v>1483.05</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
@@ -20879,9 +20414,6 @@
       <c r="F598">
         <v>1480</v>
       </c>
-      <c r="G598">
-        <v>1480</v>
-      </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
@@ -20900,10 +20432,10 @@
         <v>-3</v>
       </c>
       <c r="F599">
-        <v>818.47</v>
+        <v>1360</v>
       </c>
       <c r="G599">
-        <v>779.79</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
@@ -20949,7 +20481,7 @@
         <v>2720.55</v>
       </c>
       <c r="G601">
-        <v>2298.02</v>
+        <v>1875.5</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
@@ -20968,12 +20500,6 @@
       <c r="E602">
         <v>-1</v>
       </c>
-      <c r="F602">
-        <v>7.44</v>
-      </c>
-      <c r="G602">
-        <v>7.44</v>
-      </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
@@ -20995,7 +20521,7 @@
         <v>2580.5300000000002</v>
       </c>
       <c r="G603">
-        <v>2090.39</v>
+        <v>619.99</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
@@ -21018,7 +20544,7 @@
         <v>1649.8</v>
       </c>
       <c r="G604">
-        <v>1484.9</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
@@ -21041,7 +20567,7 @@
         <v>1598.58</v>
       </c>
       <c r="G605">
-        <v>1490.69</v>
+        <v>1685.2</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
@@ -21061,10 +20587,10 @@
         <v>27</v>
       </c>
       <c r="F606">
-        <v>1263.53</v>
+        <v>1320.96</v>
       </c>
       <c r="G606">
-        <v>1353.57</v>
+        <v>1394.99</v>
       </c>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
@@ -21084,10 +20610,10 @@
         <v>0</v>
       </c>
       <c r="F607">
-        <v>1031.29</v>
+        <v>1145.21</v>
       </c>
       <c r="G607">
-        <v>913.41</v>
+        <v>1322.83</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
@@ -21109,9 +20635,6 @@
       <c r="F608">
         <v>1320</v>
       </c>
-      <c r="G608">
-        <v>1320</v>
-      </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
@@ -21133,7 +20656,7 @@
         <v>1582.95</v>
       </c>
       <c r="G609">
-        <v>1962.7</v>
+        <v>2532.3200000000002</v>
       </c>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
@@ -21156,7 +20679,7 @@
         <v>1400.73</v>
       </c>
       <c r="G610">
-        <v>1434.13</v>
+        <v>1454.18</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
@@ -21179,7 +20702,7 @@
         <v>1726.6</v>
       </c>
       <c r="G611">
-        <v>1551.62</v>
+        <v>1114.1600000000001</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
@@ -21245,7 +20768,7 @@
         <v>1360</v>
       </c>
       <c r="G614">
-        <v>1392.32</v>
+        <v>1424.64</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
@@ -21268,7 +20791,7 @@
         <v>1356.67</v>
       </c>
       <c r="G615">
-        <v>1405.43</v>
+        <v>1432.03</v>
       </c>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
@@ -21291,7 +20814,7 @@
         <v>1371.53</v>
       </c>
       <c r="G616">
-        <v>1558.4</v>
+        <v>1670.51</v>
       </c>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
@@ -21314,7 +20837,7 @@
         <v>1445.52</v>
       </c>
       <c r="G617">
-        <v>1494.01</v>
+        <v>1547.35</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
@@ -21336,9 +20859,6 @@
       <c r="F618">
         <v>1430.43</v>
       </c>
-      <c r="G618">
-        <v>1430.43</v>
-      </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
@@ -21357,10 +20877,10 @@
         <v>-8</v>
       </c>
       <c r="F619">
-        <v>1365.01</v>
+        <v>1424.09</v>
       </c>
       <c r="G619">
-        <v>1353.54</v>
+        <v>1425.03</v>
       </c>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
@@ -21382,9 +20902,6 @@
       <c r="F620">
         <v>1400</v>
       </c>
-      <c r="G620">
-        <v>1400</v>
-      </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
@@ -21446,7 +20963,7 @@
         <v>1320</v>
       </c>
       <c r="G623">
-        <v>1364.85</v>
+        <v>1372.32</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
@@ -21469,7 +20986,7 @@
         <v>2600</v>
       </c>
       <c r="G624">
-        <v>2342.66</v>
+        <v>2085.33</v>
       </c>
     </row>
   </sheetData>
@@ -21481,9 +20998,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="86.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -21525,10 +21047,10 @@
         <v>62</v>
       </c>
       <c r="F2">
-        <v>1618.14</v>
+        <v>1720.29</v>
       </c>
       <c r="G2">
-        <v>3020.3</v>
+        <v>1704.79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -21548,10 +21070,10 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>1205.8399999999999</v>
+        <v>1747.77</v>
       </c>
       <c r="G3">
-        <v>1496.15</v>
+        <v>1840.47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -21571,10 +21093,10 @@
         <v>43</v>
       </c>
       <c r="F4">
-        <v>1349.78</v>
+        <v>1407.33</v>
       </c>
       <c r="G4">
-        <v>1356.68</v>
+        <v>1390.82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -21594,10 +21116,10 @@
         <v>239</v>
       </c>
       <c r="F5">
-        <v>1422.44</v>
+        <v>1538.18</v>
       </c>
       <c r="G5">
-        <v>1436.7</v>
+        <v>1499.27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -21617,10 +21139,10 @@
         <v>888</v>
       </c>
       <c r="F6">
-        <v>1641.1</v>
+        <v>1859.06</v>
       </c>
       <c r="G6">
-        <v>1572.3</v>
+        <v>1742.64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -21640,10 +21162,10 @@
         <v>-21</v>
       </c>
       <c r="F7">
-        <v>1538.56</v>
+        <v>1608.95</v>
       </c>
       <c r="G7">
-        <v>1593.67</v>
+        <v>1690.92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -21663,10 +21185,10 @@
         <v>805</v>
       </c>
       <c r="F8">
-        <v>1654.33</v>
+        <v>1696.98</v>
       </c>
       <c r="G8">
-        <v>1584.17</v>
+        <v>1595.28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -21686,10 +21208,10 @@
         <v>34</v>
       </c>
       <c r="F9">
-        <v>1364.6</v>
+        <v>1439.12</v>
       </c>
       <c r="G9">
-        <v>1382.9</v>
+        <v>1490.36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -21709,10 +21231,10 @@
         <v>121</v>
       </c>
       <c r="F10">
-        <v>1751.54</v>
+        <v>1811.91</v>
       </c>
       <c r="G10">
-        <v>1595.02</v>
+        <v>1545.26</v>
       </c>
     </row>
   </sheetData>
@@ -21724,14 +21246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -21773,10 +21290,10 @@
         <v>-14</v>
       </c>
       <c r="F2">
-        <v>1058.1199999999999</v>
+        <v>1441.12</v>
       </c>
       <c r="G2">
-        <v>1192.71</v>
+        <v>1462.39</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -21784,22 +21301,22 @@
         <v>45200</v>
       </c>
       <c r="B3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C3">
-        <v>1207</v>
+        <v>1137</v>
       </c>
       <c r="D3">
-        <v>1023</v>
+        <v>886</v>
       </c>
       <c r="E3">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="F3">
-        <v>1340.59</v>
+        <v>1594.44</v>
       </c>
       <c r="G3">
-        <v>1395.09</v>
+        <v>1590.21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -21807,22 +21324,22 @@
         <v>45200</v>
       </c>
       <c r="B4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C4">
-        <v>1137</v>
+        <v>1207</v>
       </c>
       <c r="D4">
-        <v>886</v>
+        <v>1023</v>
       </c>
       <c r="E4">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="F4">
-        <v>1508.33</v>
+        <v>1638.82</v>
       </c>
       <c r="G4">
-        <v>1505.13</v>
+        <v>1582.85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -21830,22 +21347,22 @@
         <v>45200</v>
       </c>
       <c r="B5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C5">
-        <v>831</v>
+        <v>7703</v>
       </c>
       <c r="D5">
-        <v>758</v>
+        <v>6241</v>
       </c>
       <c r="E5">
-        <v>73</v>
+        <v>1462</v>
       </c>
       <c r="F5">
-        <v>1219.52</v>
+        <v>1552.25</v>
       </c>
       <c r="G5">
-        <v>1285.19</v>
+        <v>1523.46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -21853,22 +21370,22 @@
         <v>45200</v>
       </c>
       <c r="B6" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C6">
-        <v>7703</v>
+        <v>831</v>
       </c>
       <c r="D6">
-        <v>6241</v>
+        <v>758</v>
       </c>
       <c r="E6">
-        <v>1462</v>
+        <v>73</v>
       </c>
       <c r="F6">
-        <v>1439.96</v>
+        <v>1509.46</v>
       </c>
       <c r="G6">
-        <v>1572.83</v>
+        <v>1477.82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -21876,22 +21393,22 @@
         <v>45200</v>
       </c>
       <c r="B7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C7">
-        <v>474</v>
+        <v>1002</v>
       </c>
       <c r="D7">
-        <v>380</v>
+        <v>865</v>
       </c>
       <c r="E7">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="F7">
-        <v>1562.43</v>
+        <v>2586.6999999999998</v>
       </c>
       <c r="G7">
-        <v>1560.65</v>
+        <v>2585.14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -21899,22 +21416,22 @@
         <v>45200</v>
       </c>
       <c r="B8" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C8">
-        <v>1002</v>
+        <v>474</v>
       </c>
       <c r="D8">
-        <v>865</v>
+        <v>380</v>
       </c>
       <c r="E8">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="F8">
-        <v>2441.12</v>
+        <v>1667.53</v>
       </c>
       <c r="G8">
-        <v>2427.6799999999998</v>
+        <v>1592.64</v>
       </c>
     </row>
   </sheetData>
@@ -21926,9 +21443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -21963,19 +21478,19 @@
         <v>840</v>
       </c>
       <c r="C2">
-        <v>3539</v>
+        <v>3064</v>
       </c>
       <c r="D2">
-        <v>2344</v>
+        <v>1968</v>
       </c>
       <c r="E2">
-        <v>1195</v>
+        <v>1096</v>
       </c>
       <c r="F2">
-        <v>1193.68</v>
+        <v>1367.08</v>
       </c>
       <c r="G2">
-        <v>1577.01</v>
+        <v>1398.17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -21986,19 +21501,19 @@
         <v>841</v>
       </c>
       <c r="C3">
-        <v>2385</v>
+        <v>2509</v>
       </c>
       <c r="D3">
-        <v>2055</v>
+        <v>2133</v>
       </c>
       <c r="E3">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="F3">
-        <v>1456.04</v>
+        <v>1550.96</v>
       </c>
       <c r="G3">
-        <v>1499.99</v>
+        <v>1595.84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -22009,19 +21524,19 @@
         <v>842</v>
       </c>
       <c r="C4">
-        <v>3518</v>
+        <v>3628</v>
       </c>
       <c r="D4">
-        <v>3273</v>
+        <v>3343</v>
       </c>
       <c r="E4">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F4">
-        <v>1611.14</v>
+        <v>1710</v>
       </c>
       <c r="G4">
-        <v>1615.4</v>
+        <v>1700.1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -22032,19 +21547,19 @@
         <v>843</v>
       </c>
       <c r="C5">
-        <v>2033</v>
+        <v>2187</v>
       </c>
       <c r="D5">
-        <v>1770</v>
+        <v>1927</v>
       </c>
       <c r="E5">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F5">
-        <v>1695.51</v>
+        <v>1820.14</v>
       </c>
       <c r="G5">
-        <v>1667.63</v>
+        <v>1734.98</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -22055,19 +21570,19 @@
         <v>844</v>
       </c>
       <c r="C6">
-        <v>771</v>
+        <v>890</v>
       </c>
       <c r="D6">
-        <v>677</v>
+        <v>776</v>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F6">
-        <v>1745.92</v>
+        <v>1892.39</v>
       </c>
       <c r="G6">
-        <v>1777.88</v>
+        <v>1865.78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -22078,19 +21593,19 @@
         <v>845</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="F7">
-        <v>2700.99</v>
+        <v>2537.77</v>
       </c>
       <c r="G7">
-        <v>2914.5</v>
+        <v>2818.88</v>
       </c>
     </row>
   </sheetData>
@@ -22103,10 +21618,15 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G2:G7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -22148,10 +21668,10 @@
         <v>43</v>
       </c>
       <c r="F2">
-        <v>1780.39</v>
+        <v>1886.89</v>
       </c>
       <c r="G2">
-        <v>1769.52</v>
+        <v>1844.82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -22171,10 +21691,10 @@
         <v>225</v>
       </c>
       <c r="F3">
-        <v>1583.72</v>
+        <v>1643.67</v>
       </c>
       <c r="G3">
-        <v>1529.84</v>
+        <v>1557.47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -22194,10 +21714,10 @@
         <v>1836</v>
       </c>
       <c r="F4">
-        <v>1449.97</v>
+        <v>1630.77</v>
       </c>
       <c r="G4">
-        <v>1589.04</v>
+        <v>1599.55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -22220,7 +21740,7 @@
         <v>1806.58</v>
       </c>
       <c r="G5">
-        <v>1513.33</v>
+        <v>1439.42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -22240,10 +21760,10 @@
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>1233.24</v>
+        <v>1356.56</v>
       </c>
       <c r="G6">
-        <v>1241.43</v>
+        <v>1389.37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -22263,10 +21783,10 @@
         <v>68</v>
       </c>
       <c r="F7">
-        <v>1567.34</v>
+        <v>1628.97</v>
       </c>
       <c r="G7">
-        <v>1569.15</v>
+        <v>1629.01</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -22286,9 +21806,6 @@
         <v>-7</v>
       </c>
       <c r="F8">
-        <v>1662.4</v>
-      </c>
-      <c r="G8">
         <v>1662.4</v>
       </c>
     </row>
@@ -22301,9 +21818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -22347,10 +21862,10 @@
         <v>1564</v>
       </c>
       <c r="F2">
-        <v>1528.88</v>
+        <v>1684.95</v>
       </c>
       <c r="G2">
-        <v>1548.8</v>
+        <v>1671.55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -22370,195 +21885,10 @@
         <v>623</v>
       </c>
       <c r="F3">
-        <v>1459.87</v>
+        <v>1594.79</v>
       </c>
       <c r="G3">
-        <v>1701.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" activeCellId="1" sqref="D2:D10 K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C2">
-        <v>3690811.36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>861</v>
-      </c>
-      <c r="E2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>823</v>
-      </c>
-      <c r="C3">
-        <v>3372324.82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>862</v>
-      </c>
-      <c r="E3" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>824</v>
-      </c>
-      <c r="C4">
-        <v>1702637.88</v>
-      </c>
-      <c r="D4" t="s">
-        <v>863</v>
-      </c>
-      <c r="E4" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>825</v>
-      </c>
-      <c r="C5">
-        <v>8411897.1099999994</v>
-      </c>
-      <c r="D5" t="s">
-        <v>864</v>
-      </c>
-      <c r="E5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>826</v>
-      </c>
-      <c r="C6">
-        <v>6521912.7599999998</v>
-      </c>
-      <c r="D6" t="s">
-        <v>865</v>
-      </c>
-      <c r="E6" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>827</v>
-      </c>
-      <c r="C7">
-        <v>2755456.22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>866</v>
-      </c>
-      <c r="E7" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>828</v>
-      </c>
-      <c r="C8">
-        <v>7938257.3399999999</v>
-      </c>
-      <c r="D8" t="s">
-        <v>867</v>
-      </c>
-      <c r="E8" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>829</v>
-      </c>
-      <c r="C9">
-        <v>578050.57999999996</v>
-      </c>
-      <c r="D9" t="s">
-        <v>868</v>
-      </c>
-      <c r="E9" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>830</v>
-      </c>
-      <c r="C10">
-        <v>1150012.96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>869</v>
-      </c>
-      <c r="E10" t="s">
-        <v>830</v>
+        <v>1509.88</v>
       </c>
     </row>
   </sheetData>
